--- a/doc/IPA Zeitplan Lars Gächter.xlsx
+++ b/doc/IPA Zeitplan Lars Gächter.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B5E493-2F92-4677-9E7A-B5534307DBA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11347114-5224-4A14-A1D1-5563EE3CE536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,8 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +946,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,8 +1345,8 @@
   </sheetPr>
   <dimension ref="B2:EO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BI40" sqref="BI40:BJ40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,102 +1979,102 @@
       <c r="B7" s="120"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="94"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="92"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="94"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="92"/>
       <c r="AH7" s="60"/>
       <c r="AI7" s="61"/>
       <c r="AJ7" s="61"/>
       <c r="AK7" s="62"/>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="94"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="92"/>
       <c r="AU7" s="9"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="94"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="92"/>
       <c r="BD7" s="9"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="94"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="94"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="94"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="92"/>
       <c r="BM7" s="9"/>
-      <c r="BN7" s="93"/>
-      <c r="BO7" s="94"/>
-      <c r="BP7" s="93"/>
-      <c r="BQ7" s="94"/>
+      <c r="BN7" s="91"/>
+      <c r="BO7" s="92"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="92"/>
       <c r="BR7" s="60"/>
       <c r="BS7" s="61"/>
       <c r="BT7" s="61"/>
       <c r="BU7" s="62"/>
       <c r="BV7" s="9"/>
-      <c r="BW7" s="93"/>
-      <c r="BX7" s="94"/>
-      <c r="BY7" s="93"/>
-      <c r="BZ7" s="94"/>
-      <c r="CA7" s="93"/>
-      <c r="CB7" s="94"/>
-      <c r="CC7" s="93"/>
-      <c r="CD7" s="94"/>
+      <c r="BW7" s="91"/>
+      <c r="BX7" s="92"/>
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="92"/>
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="92"/>
+      <c r="CC7" s="91"/>
+      <c r="CD7" s="92"/>
       <c r="CE7" s="9"/>
-      <c r="CF7" s="93"/>
-      <c r="CG7" s="94"/>
-      <c r="CH7" s="93"/>
-      <c r="CI7" s="94"/>
-      <c r="CJ7" s="93"/>
-      <c r="CK7" s="94"/>
-      <c r="CL7" s="93"/>
-      <c r="CM7" s="94"/>
+      <c r="CF7" s="91"/>
+      <c r="CG7" s="92"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="92"/>
+      <c r="CJ7" s="91"/>
+      <c r="CK7" s="92"/>
+      <c r="CL7" s="91"/>
+      <c r="CM7" s="92"/>
       <c r="CN7" s="9"/>
-      <c r="CO7" s="93"/>
-      <c r="CP7" s="94"/>
-      <c r="CQ7" s="93"/>
-      <c r="CR7" s="94"/>
-      <c r="CS7" s="93"/>
-      <c r="CT7" s="94"/>
-      <c r="CU7" s="93"/>
-      <c r="CV7" s="94"/>
+      <c r="CO7" s="91"/>
+      <c r="CP7" s="92"/>
+      <c r="CQ7" s="91"/>
+      <c r="CR7" s="92"/>
+      <c r="CS7" s="91"/>
+      <c r="CT7" s="92"/>
+      <c r="CU7" s="91"/>
+      <c r="CV7" s="92"/>
       <c r="CW7" s="9"/>
       <c r="CX7" s="113"/>
     </row>
@@ -2082,207 +2082,207 @@
       <c r="B8" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="58"/>
       <c r="F8" s="59"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="90"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="92"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="90"/>
       <c r="AH8" s="60"/>
       <c r="AI8" s="61"/>
       <c r="AJ8" s="61"/>
       <c r="AK8" s="62"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="92"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="90"/>
       <c r="AU8" s="8"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="92"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="90"/>
       <c r="BD8" s="8"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="91"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="91"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="91"/>
-      <c r="BL8" s="92"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="90"/>
       <c r="BM8" s="8"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="91"/>
-      <c r="BQ8" s="92"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="90"/>
+      <c r="BP8" s="89"/>
+      <c r="BQ8" s="90"/>
       <c r="BR8" s="60"/>
       <c r="BS8" s="61"/>
       <c r="BT8" s="61"/>
       <c r="BU8" s="62"/>
       <c r="BV8" s="8"/>
-      <c r="BW8" s="91"/>
-      <c r="BX8" s="92"/>
-      <c r="BY8" s="91"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="91"/>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="91"/>
-      <c r="CD8" s="92"/>
+      <c r="BW8" s="89"/>
+      <c r="BX8" s="90"/>
+      <c r="BY8" s="89"/>
+      <c r="BZ8" s="90"/>
+      <c r="CA8" s="89"/>
+      <c r="CB8" s="90"/>
+      <c r="CC8" s="89"/>
+      <c r="CD8" s="90"/>
       <c r="CE8" s="8"/>
-      <c r="CF8" s="91"/>
-      <c r="CG8" s="92"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="92"/>
-      <c r="CJ8" s="91"/>
-      <c r="CK8" s="92"/>
-      <c r="CL8" s="91"/>
-      <c r="CM8" s="92"/>
+      <c r="CF8" s="89"/>
+      <c r="CG8" s="90"/>
+      <c r="CH8" s="89"/>
+      <c r="CI8" s="90"/>
+      <c r="CJ8" s="89"/>
+      <c r="CK8" s="90"/>
+      <c r="CL8" s="89"/>
+      <c r="CM8" s="90"/>
       <c r="CN8" s="8"/>
-      <c r="CO8" s="91"/>
-      <c r="CP8" s="92"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="92"/>
-      <c r="CS8" s="91"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="91"/>
-      <c r="CV8" s="92"/>
+      <c r="CO8" s="89"/>
+      <c r="CP8" s="90"/>
+      <c r="CQ8" s="89"/>
+      <c r="CR8" s="90"/>
+      <c r="CS8" s="89"/>
+      <c r="CT8" s="90"/>
+      <c r="CU8" s="89"/>
+      <c r="CV8" s="90"/>
       <c r="CW8" s="8"/>
       <c r="CX8" s="113"/>
     </row>
     <row r="9" spans="2:145" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="120"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="82"/>
       <c r="F9" s="83"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="94"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="94"/>
       <c r="AH9" s="103"/>
       <c r="AI9" s="104"/>
       <c r="AJ9" s="104"/>
       <c r="AK9" s="105"/>
       <c r="AL9" s="8"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="90"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="94"/>
       <c r="AU9" s="8"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="90"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="94"/>
       <c r="BD9" s="8"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="89"/>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="89"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="90"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="93"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="94"/>
       <c r="BM9" s="8"/>
-      <c r="BN9" s="89"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="89"/>
-      <c r="BQ9" s="90"/>
+      <c r="BN9" s="93"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="93"/>
+      <c r="BQ9" s="94"/>
       <c r="BR9" s="60"/>
       <c r="BS9" s="61"/>
       <c r="BT9" s="61"/>
       <c r="BU9" s="62"/>
       <c r="BV9" s="8"/>
-      <c r="BW9" s="89"/>
-      <c r="BX9" s="90"/>
-      <c r="BY9" s="89"/>
-      <c r="BZ9" s="90"/>
-      <c r="CA9" s="89"/>
-      <c r="CB9" s="90"/>
-      <c r="CC9" s="89"/>
-      <c r="CD9" s="90"/>
+      <c r="BW9" s="93"/>
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="93"/>
+      <c r="BZ9" s="94"/>
+      <c r="CA9" s="93"/>
+      <c r="CB9" s="94"/>
+      <c r="CC9" s="93"/>
+      <c r="CD9" s="94"/>
       <c r="CE9" s="8"/>
-      <c r="CF9" s="89"/>
-      <c r="CG9" s="90"/>
-      <c r="CH9" s="89"/>
-      <c r="CI9" s="90"/>
-      <c r="CJ9" s="89"/>
-      <c r="CK9" s="90"/>
-      <c r="CL9" s="89"/>
-      <c r="CM9" s="90"/>
+      <c r="CF9" s="93"/>
+      <c r="CG9" s="94"/>
+      <c r="CH9" s="93"/>
+      <c r="CI9" s="94"/>
+      <c r="CJ9" s="93"/>
+      <c r="CK9" s="94"/>
+      <c r="CL9" s="93"/>
+      <c r="CM9" s="94"/>
       <c r="CN9" s="8"/>
-      <c r="CO9" s="89"/>
-      <c r="CP9" s="90"/>
-      <c r="CQ9" s="89"/>
-      <c r="CR9" s="90"/>
-      <c r="CS9" s="89"/>
-      <c r="CT9" s="90"/>
-      <c r="CU9" s="89"/>
-      <c r="CV9" s="90"/>
+      <c r="CO9" s="93"/>
+      <c r="CP9" s="94"/>
+      <c r="CQ9" s="93"/>
+      <c r="CR9" s="94"/>
+      <c r="CS9" s="93"/>
+      <c r="CT9" s="94"/>
+      <c r="CU9" s="93"/>
+      <c r="CV9" s="94"/>
       <c r="CW9" s="8"/>
       <c r="CX9" s="113"/>
     </row>
@@ -2408,19 +2408,19 @@
       <c r="M11" s="86"/>
       <c r="N11" s="85"/>
       <c r="O11" s="86"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="90"/>
       <c r="T11" s="8"/>
       <c r="U11" s="85"/>
       <c r="V11" s="86"/>
       <c r="W11" s="85"/>
       <c r="X11" s="86"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="92"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="90"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="85"/>
       <c r="AE11" s="86"/>
@@ -2498,104 +2498,104 @@
     </row>
     <row r="12" spans="2:145" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="122"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="82"/>
       <c r="H12" s="83"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="94"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="90"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="94"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
       <c r="AH12" s="60"/>
       <c r="AI12" s="61"/>
       <c r="AJ12" s="61"/>
       <c r="AK12" s="62"/>
       <c r="AL12" s="9"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="94"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="92"/>
       <c r="AU12" s="9"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="94"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="92"/>
       <c r="BD12" s="9"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="94"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="94"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="94"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="92"/>
+      <c r="BG12" s="91"/>
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="92"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="92"/>
       <c r="BM12" s="9"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="94"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="94"/>
+      <c r="BN12" s="91"/>
+      <c r="BO12" s="92"/>
+      <c r="BP12" s="91"/>
+      <c r="BQ12" s="92"/>
       <c r="BR12" s="60"/>
       <c r="BS12" s="61"/>
       <c r="BT12" s="61"/>
       <c r="BU12" s="62"/>
       <c r="BV12" s="9"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="94"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="94"/>
-      <c r="CA12" s="93"/>
-      <c r="CB12" s="94"/>
-      <c r="CC12" s="93"/>
-      <c r="CD12" s="94"/>
+      <c r="BW12" s="91"/>
+      <c r="BX12" s="92"/>
+      <c r="BY12" s="91"/>
+      <c r="BZ12" s="92"/>
+      <c r="CA12" s="91"/>
+      <c r="CB12" s="92"/>
+      <c r="CC12" s="91"/>
+      <c r="CD12" s="92"/>
       <c r="CE12" s="9"/>
-      <c r="CF12" s="93"/>
-      <c r="CG12" s="94"/>
-      <c r="CH12" s="93"/>
-      <c r="CI12" s="94"/>
-      <c r="CJ12" s="93"/>
-      <c r="CK12" s="94"/>
-      <c r="CL12" s="93"/>
-      <c r="CM12" s="94"/>
+      <c r="CF12" s="91"/>
+      <c r="CG12" s="92"/>
+      <c r="CH12" s="91"/>
+      <c r="CI12" s="92"/>
+      <c r="CJ12" s="91"/>
+      <c r="CK12" s="92"/>
+      <c r="CL12" s="91"/>
+      <c r="CM12" s="92"/>
       <c r="CN12" s="9"/>
-      <c r="CO12" s="93"/>
-      <c r="CP12" s="94"/>
-      <c r="CQ12" s="93"/>
-      <c r="CR12" s="94"/>
-      <c r="CS12" s="93"/>
-      <c r="CT12" s="94"/>
-      <c r="CU12" s="93"/>
-      <c r="CV12" s="94"/>
+      <c r="CO12" s="91"/>
+      <c r="CP12" s="92"/>
+      <c r="CQ12" s="91"/>
+      <c r="CR12" s="92"/>
+      <c r="CS12" s="91"/>
+      <c r="CT12" s="92"/>
+      <c r="CU12" s="91"/>
+      <c r="CV12" s="92"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="113"/>
     </row>
@@ -2607,28 +2607,28 @@
       <c r="D13" s="86"/>
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="8"/>
       <c r="L13" s="58"/>
       <c r="M13" s="59"/>
       <c r="N13" s="58"/>
       <c r="O13" s="59"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
       <c r="T13" s="8"/>
       <c r="U13" s="85"/>
       <c r="V13" s="86"/>
       <c r="W13" s="85"/>
       <c r="X13" s="86"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="92"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="90"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="85"/>
       <c r="AE13" s="86"/>
@@ -2675,45 +2675,45 @@
       <c r="BT13" s="61"/>
       <c r="BU13" s="62"/>
       <c r="BV13" s="8"/>
-      <c r="BW13" s="91"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="91"/>
-      <c r="BZ13" s="92"/>
-      <c r="CA13" s="91"/>
-      <c r="CB13" s="92"/>
-      <c r="CC13" s="91"/>
-      <c r="CD13" s="92"/>
+      <c r="BW13" s="89"/>
+      <c r="BX13" s="90"/>
+      <c r="BY13" s="89"/>
+      <c r="BZ13" s="90"/>
+      <c r="CA13" s="89"/>
+      <c r="CB13" s="90"/>
+      <c r="CC13" s="89"/>
+      <c r="CD13" s="90"/>
       <c r="CE13" s="8"/>
-      <c r="CF13" s="91"/>
-      <c r="CG13" s="92"/>
-      <c r="CH13" s="91"/>
-      <c r="CI13" s="92"/>
-      <c r="CJ13" s="91"/>
-      <c r="CK13" s="92"/>
-      <c r="CL13" s="91"/>
-      <c r="CM13" s="92"/>
+      <c r="CF13" s="89"/>
+      <c r="CG13" s="90"/>
+      <c r="CH13" s="89"/>
+      <c r="CI13" s="90"/>
+      <c r="CJ13" s="89"/>
+      <c r="CK13" s="90"/>
+      <c r="CL13" s="89"/>
+      <c r="CM13" s="90"/>
       <c r="CN13" s="8"/>
-      <c r="CO13" s="91"/>
-      <c r="CP13" s="92"/>
-      <c r="CQ13" s="91"/>
-      <c r="CR13" s="92"/>
-      <c r="CS13" s="91"/>
-      <c r="CT13" s="92"/>
-      <c r="CU13" s="91"/>
-      <c r="CV13" s="92"/>
+      <c r="CO13" s="89"/>
+      <c r="CP13" s="90"/>
+      <c r="CQ13" s="89"/>
+      <c r="CR13" s="90"/>
+      <c r="CS13" s="89"/>
+      <c r="CT13" s="90"/>
+      <c r="CU13" s="89"/>
+      <c r="CV13" s="90"/>
       <c r="CW13" s="8"/>
       <c r="CX13" s="113"/>
     </row>
     <row r="14" spans="2:145" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="120"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
       <c r="K14" s="10"/>
       <c r="L14" s="82"/>
       <c r="M14" s="83"/>
@@ -2721,89 +2721,89 @@
       <c r="O14" s="83"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="71"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="90"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="94"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
       <c r="AH14" s="60"/>
       <c r="AI14" s="61"/>
       <c r="AJ14" s="61"/>
       <c r="AK14" s="62"/>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="94"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="71"/>
       <c r="AU14" s="11"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="94"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="92"/>
       <c r="BD14" s="11"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="93"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="93"/>
-      <c r="BJ14" s="94"/>
-      <c r="BK14" s="93"/>
-      <c r="BL14" s="94"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="92"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="92"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="92"/>
       <c r="BM14" s="11"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="94"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="94"/>
+      <c r="BN14" s="91"/>
+      <c r="BO14" s="92"/>
+      <c r="BP14" s="91"/>
+      <c r="BQ14" s="92"/>
       <c r="BR14" s="60"/>
       <c r="BS14" s="61"/>
       <c r="BT14" s="61"/>
       <c r="BU14" s="62"/>
       <c r="BV14" s="10"/>
-      <c r="BW14" s="89"/>
-      <c r="BX14" s="90"/>
-      <c r="BY14" s="89"/>
-      <c r="BZ14" s="90"/>
-      <c r="CA14" s="89"/>
-      <c r="CB14" s="90"/>
-      <c r="CC14" s="89"/>
-      <c r="CD14" s="90"/>
+      <c r="BW14" s="93"/>
+      <c r="BX14" s="94"/>
+      <c r="BY14" s="93"/>
+      <c r="BZ14" s="94"/>
+      <c r="CA14" s="93"/>
+      <c r="CB14" s="94"/>
+      <c r="CC14" s="93"/>
+      <c r="CD14" s="94"/>
       <c r="CE14" s="11"/>
-      <c r="CF14" s="89"/>
-      <c r="CG14" s="90"/>
-      <c r="CH14" s="89"/>
-      <c r="CI14" s="90"/>
-      <c r="CJ14" s="89"/>
-      <c r="CK14" s="90"/>
-      <c r="CL14" s="89"/>
-      <c r="CM14" s="90"/>
+      <c r="CF14" s="93"/>
+      <c r="CG14" s="94"/>
+      <c r="CH14" s="93"/>
+      <c r="CI14" s="94"/>
+      <c r="CJ14" s="93"/>
+      <c r="CK14" s="94"/>
+      <c r="CL14" s="93"/>
+      <c r="CM14" s="94"/>
       <c r="CN14" s="10"/>
-      <c r="CO14" s="89"/>
-      <c r="CP14" s="90"/>
-      <c r="CQ14" s="89"/>
-      <c r="CR14" s="90"/>
-      <c r="CS14" s="89"/>
-      <c r="CT14" s="90"/>
-      <c r="CU14" s="89"/>
-      <c r="CV14" s="90"/>
+      <c r="CO14" s="93"/>
+      <c r="CP14" s="94"/>
+      <c r="CQ14" s="93"/>
+      <c r="CR14" s="94"/>
+      <c r="CS14" s="93"/>
+      <c r="CT14" s="94"/>
+      <c r="CU14" s="93"/>
+      <c r="CV14" s="94"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="113"/>
     </row>
@@ -2811,207 +2811,207 @@
       <c r="B15" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="92"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="59"/>
       <c r="R15" s="58"/>
       <c r="S15" s="59"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="92"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="90"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="60"/>
       <c r="AI15" s="61"/>
       <c r="AJ15" s="61"/>
       <c r="AK15" s="62"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="92"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="92"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="92"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="90"/>
       <c r="AU15" s="8"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="92"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="90"/>
+      <c r="BB15" s="89"/>
+      <c r="BC15" s="90"/>
       <c r="BD15" s="8"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="92"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="92"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="92"/>
+      <c r="BE15" s="89"/>
+      <c r="BF15" s="90"/>
+      <c r="BG15" s="89"/>
+      <c r="BH15" s="90"/>
+      <c r="BI15" s="89"/>
+      <c r="BJ15" s="90"/>
+      <c r="BK15" s="89"/>
+      <c r="BL15" s="90"/>
       <c r="BM15" s="8"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="92"/>
-      <c r="BP15" s="91"/>
-      <c r="BQ15" s="92"/>
+      <c r="BN15" s="89"/>
+      <c r="BO15" s="90"/>
+      <c r="BP15" s="89"/>
+      <c r="BQ15" s="90"/>
       <c r="BR15" s="60"/>
       <c r="BS15" s="61"/>
       <c r="BT15" s="61"/>
       <c r="BU15" s="62"/>
       <c r="BV15" s="8"/>
-      <c r="BW15" s="91"/>
-      <c r="BX15" s="92"/>
-      <c r="BY15" s="91"/>
-      <c r="BZ15" s="92"/>
+      <c r="BW15" s="89"/>
+      <c r="BX15" s="90"/>
+      <c r="BY15" s="89"/>
+      <c r="BZ15" s="90"/>
       <c r="CA15" s="20"/>
       <c r="CB15" s="21"/>
-      <c r="CC15" s="91"/>
-      <c r="CD15" s="92"/>
+      <c r="CC15" s="89"/>
+      <c r="CD15" s="90"/>
       <c r="CE15" s="8"/>
-      <c r="CF15" s="91"/>
-      <c r="CG15" s="92"/>
-      <c r="CH15" s="91"/>
-      <c r="CI15" s="92"/>
-      <c r="CJ15" s="91"/>
-      <c r="CK15" s="92"/>
-      <c r="CL15" s="91"/>
-      <c r="CM15" s="92"/>
+      <c r="CF15" s="89"/>
+      <c r="CG15" s="90"/>
+      <c r="CH15" s="89"/>
+      <c r="CI15" s="90"/>
+      <c r="CJ15" s="89"/>
+      <c r="CK15" s="90"/>
+      <c r="CL15" s="89"/>
+      <c r="CM15" s="90"/>
       <c r="CN15" s="8"/>
-      <c r="CO15" s="91"/>
-      <c r="CP15" s="92"/>
-      <c r="CQ15" s="91"/>
-      <c r="CR15" s="92"/>
-      <c r="CS15" s="91"/>
-      <c r="CT15" s="92"/>
-      <c r="CU15" s="91"/>
-      <c r="CV15" s="92"/>
+      <c r="CO15" s="89"/>
+      <c r="CP15" s="90"/>
+      <c r="CQ15" s="89"/>
+      <c r="CR15" s="90"/>
+      <c r="CS15" s="89"/>
+      <c r="CT15" s="90"/>
+      <c r="CU15" s="89"/>
+      <c r="CV15" s="90"/>
       <c r="CW15" s="8"/>
       <c r="CX15" s="113"/>
     </row>
     <row r="16" spans="2:145" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="125"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="90"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="94"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="83"/>
       <c r="R16" s="82"/>
       <c r="S16" s="83"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="90"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="94"/>
       <c r="AC16" s="9"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
       <c r="AH16" s="103"/>
       <c r="AI16" s="104"/>
       <c r="AJ16" s="104"/>
       <c r="AK16" s="105"/>
       <c r="AL16" s="9"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="89"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="90"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="94"/>
       <c r="AU16" s="9"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="89"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="89"/>
-      <c r="BC16" s="90"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="94"/>
       <c r="BD16" s="9"/>
-      <c r="BE16" s="89"/>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="89"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="90"/>
-      <c r="BK16" s="89"/>
-      <c r="BL16" s="90"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="94"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="94"/>
       <c r="BM16" s="9"/>
-      <c r="BN16" s="89"/>
-      <c r="BO16" s="90"/>
-      <c r="BP16" s="89"/>
-      <c r="BQ16" s="90"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="94"/>
+      <c r="BP16" s="93"/>
+      <c r="BQ16" s="94"/>
       <c r="BR16" s="60"/>
       <c r="BS16" s="61"/>
       <c r="BT16" s="61"/>
       <c r="BU16" s="62"/>
       <c r="BV16" s="9"/>
-      <c r="BW16" s="89"/>
-      <c r="BX16" s="90"/>
-      <c r="BY16" s="89"/>
-      <c r="BZ16" s="90"/>
+      <c r="BW16" s="93"/>
+      <c r="BX16" s="94"/>
+      <c r="BY16" s="93"/>
+      <c r="BZ16" s="94"/>
       <c r="CA16" s="17"/>
       <c r="CB16" s="18"/>
       <c r="CC16" s="17"/>
       <c r="CD16" s="18"/>
       <c r="CE16" s="9"/>
-      <c r="CF16" s="89"/>
-      <c r="CG16" s="90"/>
-      <c r="CH16" s="89"/>
-      <c r="CI16" s="90"/>
-      <c r="CJ16" s="89"/>
-      <c r="CK16" s="90"/>
-      <c r="CL16" s="89"/>
-      <c r="CM16" s="90"/>
+      <c r="CF16" s="93"/>
+      <c r="CG16" s="94"/>
+      <c r="CH16" s="93"/>
+      <c r="CI16" s="94"/>
+      <c r="CJ16" s="93"/>
+      <c r="CK16" s="94"/>
+      <c r="CL16" s="93"/>
+      <c r="CM16" s="94"/>
       <c r="CN16" s="10"/>
-      <c r="CO16" s="89"/>
-      <c r="CP16" s="90"/>
-      <c r="CQ16" s="89"/>
-      <c r="CR16" s="90"/>
-      <c r="CS16" s="89"/>
-      <c r="CT16" s="90"/>
-      <c r="CU16" s="89"/>
-      <c r="CV16" s="90"/>
+      <c r="CO16" s="93"/>
+      <c r="CP16" s="94"/>
+      <c r="CQ16" s="93"/>
+      <c r="CR16" s="94"/>
+      <c r="CS16" s="93"/>
+      <c r="CT16" s="94"/>
+      <c r="CU16" s="93"/>
+      <c r="CV16" s="94"/>
       <c r="CW16" s="11"/>
       <c r="CX16" s="113"/>
     </row>
@@ -3124,19 +3124,19 @@
       <c r="B18" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="85"/>
       <c r="H18" s="86"/>
       <c r="I18" s="85"/>
       <c r="J18" s="86"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="86"/>
       <c r="R18" s="85"/>
@@ -3144,8 +3144,8 @@
       <c r="T18" s="8"/>
       <c r="U18" s="58"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="92"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
       <c r="Y18" s="85"/>
       <c r="Z18" s="86"/>
       <c r="AA18" s="85"/>
@@ -3160,99 +3160,99 @@
       <c r="AJ18" s="107"/>
       <c r="AK18" s="108"/>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="92"/>
-      <c r="AO18" s="91"/>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="92"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="90"/>
       <c r="AU18" s="8"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="92"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="92"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="89"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="89"/>
+      <c r="BC18" s="90"/>
       <c r="BD18" s="8"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="91"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="91"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="91"/>
-      <c r="BL18" s="92"/>
+      <c r="BE18" s="89"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="89"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="89"/>
+      <c r="BJ18" s="90"/>
+      <c r="BK18" s="89"/>
+      <c r="BL18" s="90"/>
       <c r="BM18" s="8"/>
-      <c r="BN18" s="91"/>
-      <c r="BO18" s="92"/>
-      <c r="BP18" s="91"/>
-      <c r="BQ18" s="92"/>
+      <c r="BN18" s="89"/>
+      <c r="BO18" s="90"/>
+      <c r="BP18" s="89"/>
+      <c r="BQ18" s="90"/>
       <c r="BR18" s="60"/>
       <c r="BS18" s="61"/>
       <c r="BT18" s="61"/>
       <c r="BU18" s="62"/>
       <c r="BV18" s="8"/>
-      <c r="BW18" s="91"/>
-      <c r="BX18" s="92"/>
-      <c r="BY18" s="91"/>
-      <c r="BZ18" s="92"/>
-      <c r="CA18" s="91"/>
-      <c r="CB18" s="92"/>
-      <c r="CC18" s="91"/>
-      <c r="CD18" s="92"/>
+      <c r="BW18" s="89"/>
+      <c r="BX18" s="90"/>
+      <c r="BY18" s="89"/>
+      <c r="BZ18" s="90"/>
+      <c r="CA18" s="89"/>
+      <c r="CB18" s="90"/>
+      <c r="CC18" s="89"/>
+      <c r="CD18" s="90"/>
       <c r="CE18" s="8"/>
-      <c r="CF18" s="91"/>
-      <c r="CG18" s="92"/>
-      <c r="CH18" s="91"/>
-      <c r="CI18" s="92"/>
-      <c r="CJ18" s="91"/>
-      <c r="CK18" s="92"/>
-      <c r="CL18" s="91"/>
-      <c r="CM18" s="92"/>
+      <c r="CF18" s="89"/>
+      <c r="CG18" s="90"/>
+      <c r="CH18" s="89"/>
+      <c r="CI18" s="90"/>
+      <c r="CJ18" s="89"/>
+      <c r="CK18" s="90"/>
+      <c r="CL18" s="89"/>
+      <c r="CM18" s="90"/>
       <c r="CN18" s="8"/>
-      <c r="CO18" s="91"/>
-      <c r="CP18" s="92"/>
-      <c r="CQ18" s="91"/>
-      <c r="CR18" s="92"/>
-      <c r="CS18" s="91"/>
-      <c r="CT18" s="92"/>
-      <c r="CU18" s="91"/>
-      <c r="CV18" s="92"/>
+      <c r="CO18" s="89"/>
+      <c r="CP18" s="90"/>
+      <c r="CQ18" s="89"/>
+      <c r="CR18" s="90"/>
+      <c r="CS18" s="89"/>
+      <c r="CT18" s="90"/>
+      <c r="CU18" s="89"/>
+      <c r="CV18" s="90"/>
       <c r="CW18" s="8"/>
       <c r="CX18" s="113"/>
     </row>
     <row r="19" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="127"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
       <c r="T19" s="9"/>
       <c r="U19" s="82"/>
       <c r="V19" s="83"/>
       <c r="W19" s="70"/>
       <c r="X19" s="71"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="90"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="94"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="50"/>
       <c r="AE19" s="51"/>
@@ -3263,68 +3263,68 @@
       <c r="AJ19" s="104"/>
       <c r="AK19" s="105"/>
       <c r="AL19" s="9"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="90"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="94"/>
       <c r="AU19" s="9"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="90"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="90"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="94"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="94"/>
       <c r="BD19" s="9"/>
-      <c r="BE19" s="89"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="90"/>
-      <c r="BI19" s="89"/>
-      <c r="BJ19" s="90"/>
-      <c r="BK19" s="89"/>
-      <c r="BL19" s="90"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="94"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="94"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="94"/>
       <c r="BM19" s="9"/>
-      <c r="BN19" s="89"/>
-      <c r="BO19" s="90"/>
-      <c r="BP19" s="89"/>
-      <c r="BQ19" s="90"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="94"/>
+      <c r="BP19" s="93"/>
+      <c r="BQ19" s="94"/>
       <c r="BR19" s="60"/>
       <c r="BS19" s="61"/>
       <c r="BT19" s="61"/>
       <c r="BU19" s="62"/>
       <c r="BV19" s="10"/>
-      <c r="BW19" s="89"/>
-      <c r="BX19" s="90"/>
-      <c r="BY19" s="89"/>
-      <c r="BZ19" s="90"/>
-      <c r="CA19" s="89"/>
-      <c r="CB19" s="90"/>
-      <c r="CC19" s="89"/>
-      <c r="CD19" s="90"/>
+      <c r="BW19" s="93"/>
+      <c r="BX19" s="94"/>
+      <c r="BY19" s="93"/>
+      <c r="BZ19" s="94"/>
+      <c r="CA19" s="93"/>
+      <c r="CB19" s="94"/>
+      <c r="CC19" s="93"/>
+      <c r="CD19" s="94"/>
       <c r="CE19" s="11"/>
-      <c r="CF19" s="89"/>
-      <c r="CG19" s="90"/>
-      <c r="CH19" s="89"/>
-      <c r="CI19" s="90"/>
-      <c r="CJ19" s="89"/>
-      <c r="CK19" s="90"/>
-      <c r="CL19" s="89"/>
-      <c r="CM19" s="90"/>
+      <c r="CF19" s="93"/>
+      <c r="CG19" s="94"/>
+      <c r="CH19" s="93"/>
+      <c r="CI19" s="94"/>
+      <c r="CJ19" s="93"/>
+      <c r="CK19" s="94"/>
+      <c r="CL19" s="93"/>
+      <c r="CM19" s="94"/>
       <c r="CN19" s="10"/>
-      <c r="CO19" s="89"/>
-      <c r="CP19" s="90"/>
-      <c r="CQ19" s="89"/>
-      <c r="CR19" s="90"/>
-      <c r="CS19" s="89"/>
-      <c r="CT19" s="90"/>
-      <c r="CU19" s="89"/>
-      <c r="CV19" s="90"/>
+      <c r="CO19" s="93"/>
+      <c r="CP19" s="94"/>
+      <c r="CQ19" s="93"/>
+      <c r="CR19" s="94"/>
+      <c r="CS19" s="93"/>
+      <c r="CT19" s="94"/>
+      <c r="CU19" s="93"/>
+      <c r="CV19" s="94"/>
       <c r="CW19" s="10"/>
       <c r="CX19" s="113"/>
     </row>
@@ -3437,32 +3437,32 @@
       <c r="B21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="92"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="90"/>
       <c r="W21" s="58"/>
       <c r="X21" s="59"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="92"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="90"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="85"/>
       <c r="AE21" s="86"/>
@@ -3500,72 +3500,72 @@
       <c r="BK21" s="87"/>
       <c r="BL21" s="88"/>
       <c r="BM21" s="8"/>
-      <c r="BN21" s="91"/>
-      <c r="BO21" s="92"/>
-      <c r="BP21" s="91"/>
-      <c r="BQ21" s="92"/>
+      <c r="BN21" s="89"/>
+      <c r="BO21" s="90"/>
+      <c r="BP21" s="89"/>
+      <c r="BQ21" s="90"/>
       <c r="BR21" s="60"/>
       <c r="BS21" s="61"/>
       <c r="BT21" s="61"/>
       <c r="BU21" s="62"/>
       <c r="BV21" s="8"/>
-      <c r="BW21" s="91"/>
-      <c r="BX21" s="92"/>
-      <c r="BY21" s="91"/>
-      <c r="BZ21" s="92"/>
-      <c r="CA21" s="91"/>
-      <c r="CB21" s="92"/>
-      <c r="CC21" s="91"/>
-      <c r="CD21" s="92"/>
+      <c r="BW21" s="89"/>
+      <c r="BX21" s="90"/>
+      <c r="BY21" s="89"/>
+      <c r="BZ21" s="90"/>
+      <c r="CA21" s="89"/>
+      <c r="CB21" s="90"/>
+      <c r="CC21" s="89"/>
+      <c r="CD21" s="90"/>
       <c r="CE21" s="8"/>
-      <c r="CF21" s="91"/>
-      <c r="CG21" s="92"/>
-      <c r="CH21" s="91"/>
-      <c r="CI21" s="92"/>
-      <c r="CJ21" s="91"/>
-      <c r="CK21" s="92"/>
-      <c r="CL21" s="91"/>
-      <c r="CM21" s="92"/>
+      <c r="CF21" s="89"/>
+      <c r="CG21" s="90"/>
+      <c r="CH21" s="89"/>
+      <c r="CI21" s="90"/>
+      <c r="CJ21" s="89"/>
+      <c r="CK21" s="90"/>
+      <c r="CL21" s="89"/>
+      <c r="CM21" s="90"/>
       <c r="CN21" s="8"/>
-      <c r="CO21" s="91"/>
-      <c r="CP21" s="92"/>
-      <c r="CQ21" s="91"/>
-      <c r="CR21" s="92"/>
-      <c r="CS21" s="91"/>
-      <c r="CT21" s="92"/>
-      <c r="CU21" s="91"/>
-      <c r="CV21" s="92"/>
+      <c r="CO21" s="89"/>
+      <c r="CP21" s="90"/>
+      <c r="CQ21" s="89"/>
+      <c r="CR21" s="90"/>
+      <c r="CS21" s="89"/>
+      <c r="CT21" s="90"/>
+      <c r="CU21" s="89"/>
+      <c r="CV21" s="90"/>
       <c r="CW21" s="8"/>
       <c r="CX21" s="113"/>
     </row>
     <row r="22" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="125"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="94"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="90"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="94"/>
       <c r="W22" s="82"/>
       <c r="X22" s="83"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="90"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="94"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="52"/>
       <c r="AE22" s="53"/>
@@ -3603,41 +3603,41 @@
       <c r="BK22" s="101"/>
       <c r="BL22" s="102"/>
       <c r="BM22" s="8"/>
-      <c r="BN22" s="89"/>
-      <c r="BO22" s="90"/>
-      <c r="BP22" s="89"/>
-      <c r="BQ22" s="90"/>
+      <c r="BN22" s="93"/>
+      <c r="BO22" s="94"/>
+      <c r="BP22" s="93"/>
+      <c r="BQ22" s="94"/>
       <c r="BR22" s="60"/>
       <c r="BS22" s="61"/>
       <c r="BT22" s="61"/>
       <c r="BU22" s="62"/>
       <c r="BV22" s="10"/>
-      <c r="BW22" s="89"/>
-      <c r="BX22" s="90"/>
-      <c r="BY22" s="89"/>
-      <c r="BZ22" s="90"/>
-      <c r="CA22" s="89"/>
-      <c r="CB22" s="90"/>
-      <c r="CC22" s="89"/>
-      <c r="CD22" s="90"/>
+      <c r="BW22" s="93"/>
+      <c r="BX22" s="94"/>
+      <c r="BY22" s="93"/>
+      <c r="BZ22" s="94"/>
+      <c r="CA22" s="93"/>
+      <c r="CB22" s="94"/>
+      <c r="CC22" s="93"/>
+      <c r="CD22" s="94"/>
       <c r="CE22" s="11"/>
-      <c r="CF22" s="89"/>
-      <c r="CG22" s="90"/>
-      <c r="CH22" s="89"/>
-      <c r="CI22" s="90"/>
-      <c r="CJ22" s="89"/>
-      <c r="CK22" s="90"/>
-      <c r="CL22" s="89"/>
-      <c r="CM22" s="90"/>
+      <c r="CF22" s="93"/>
+      <c r="CG22" s="94"/>
+      <c r="CH22" s="93"/>
+      <c r="CI22" s="94"/>
+      <c r="CJ22" s="93"/>
+      <c r="CK22" s="94"/>
+      <c r="CL22" s="93"/>
+      <c r="CM22" s="94"/>
       <c r="CN22" s="10"/>
-      <c r="CO22" s="89"/>
-      <c r="CP22" s="90"/>
-      <c r="CQ22" s="89"/>
-      <c r="CR22" s="90"/>
-      <c r="CS22" s="89"/>
-      <c r="CT22" s="90"/>
-      <c r="CU22" s="89"/>
-      <c r="CV22" s="90"/>
+      <c r="CO22" s="93"/>
+      <c r="CP22" s="94"/>
+      <c r="CQ22" s="93"/>
+      <c r="CR22" s="94"/>
+      <c r="CS22" s="93"/>
+      <c r="CT22" s="94"/>
+      <c r="CU22" s="93"/>
+      <c r="CV22" s="94"/>
       <c r="CW22" s="10"/>
       <c r="CX22" s="113"/>
     </row>
@@ -3645,28 +3645,28 @@
       <c r="B23" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="24"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="92"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="90"/>
       <c r="Y23" s="58"/>
       <c r="Z23" s="59"/>
       <c r="AA23" s="85"/>
@@ -3708,72 +3708,72 @@
       <c r="BK23" s="87"/>
       <c r="BL23" s="88"/>
       <c r="BM23" s="25"/>
-      <c r="BN23" s="91"/>
-      <c r="BO23" s="92"/>
-      <c r="BP23" s="91"/>
-      <c r="BQ23" s="92"/>
+      <c r="BN23" s="89"/>
+      <c r="BO23" s="90"/>
+      <c r="BP23" s="89"/>
+      <c r="BQ23" s="90"/>
       <c r="BR23" s="60"/>
       <c r="BS23" s="61"/>
       <c r="BT23" s="61"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="8"/>
-      <c r="BW23" s="91"/>
-      <c r="BX23" s="92"/>
-      <c r="BY23" s="91"/>
-      <c r="BZ23" s="92"/>
-      <c r="CA23" s="91"/>
-      <c r="CB23" s="92"/>
-      <c r="CC23" s="91"/>
-      <c r="CD23" s="92"/>
+      <c r="BW23" s="89"/>
+      <c r="BX23" s="90"/>
+      <c r="BY23" s="89"/>
+      <c r="BZ23" s="90"/>
+      <c r="CA23" s="89"/>
+      <c r="CB23" s="90"/>
+      <c r="CC23" s="89"/>
+      <c r="CD23" s="90"/>
       <c r="CE23" s="8"/>
-      <c r="CF23" s="91"/>
-      <c r="CG23" s="92"/>
-      <c r="CH23" s="91"/>
-      <c r="CI23" s="92"/>
-      <c r="CJ23" s="91"/>
-      <c r="CK23" s="92"/>
-      <c r="CL23" s="91"/>
-      <c r="CM23" s="92"/>
+      <c r="CF23" s="89"/>
+      <c r="CG23" s="90"/>
+      <c r="CH23" s="89"/>
+      <c r="CI23" s="90"/>
+      <c r="CJ23" s="89"/>
+      <c r="CK23" s="90"/>
+      <c r="CL23" s="89"/>
+      <c r="CM23" s="90"/>
       <c r="CN23" s="8"/>
-      <c r="CO23" s="91"/>
-      <c r="CP23" s="92"/>
-      <c r="CQ23" s="91"/>
-      <c r="CR23" s="92"/>
-      <c r="CS23" s="91"/>
-      <c r="CT23" s="92"/>
-      <c r="CU23" s="91"/>
-      <c r="CV23" s="92"/>
+      <c r="CO23" s="89"/>
+      <c r="CP23" s="90"/>
+      <c r="CQ23" s="89"/>
+      <c r="CR23" s="90"/>
+      <c r="CS23" s="89"/>
+      <c r="CT23" s="90"/>
+      <c r="CU23" s="89"/>
+      <c r="CV23" s="90"/>
       <c r="CW23" s="8"/>
       <c r="CX23" s="113"/>
     </row>
     <row r="24" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="125"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="90"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="94"/>
       <c r="T24" s="10"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="94"/>
       <c r="Y24" s="82"/>
       <c r="Z24" s="83"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="90"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="94"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="52"/>
       <c r="AE24" s="53"/>
@@ -3811,41 +3811,41 @@
       <c r="BK24" s="101"/>
       <c r="BL24" s="102"/>
       <c r="BM24" s="10"/>
-      <c r="BN24" s="89"/>
-      <c r="BO24" s="90"/>
-      <c r="BP24" s="89"/>
-      <c r="BQ24" s="90"/>
+      <c r="BN24" s="93"/>
+      <c r="BO24" s="94"/>
+      <c r="BP24" s="93"/>
+      <c r="BQ24" s="94"/>
       <c r="BR24" s="60"/>
       <c r="BS24" s="61"/>
       <c r="BT24" s="61"/>
       <c r="BU24" s="62"/>
       <c r="BV24" s="10"/>
-      <c r="BW24" s="89"/>
-      <c r="BX24" s="90"/>
-      <c r="BY24" s="89"/>
-      <c r="BZ24" s="90"/>
-      <c r="CA24" s="89"/>
-      <c r="CB24" s="90"/>
-      <c r="CC24" s="89"/>
-      <c r="CD24" s="90"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="94"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="94"/>
+      <c r="CA24" s="93"/>
+      <c r="CB24" s="94"/>
+      <c r="CC24" s="93"/>
+      <c r="CD24" s="94"/>
       <c r="CE24" s="11"/>
-      <c r="CF24" s="89"/>
-      <c r="CG24" s="90"/>
-      <c r="CH24" s="89"/>
-      <c r="CI24" s="90"/>
-      <c r="CJ24" s="89"/>
-      <c r="CK24" s="90"/>
-      <c r="CL24" s="89"/>
-      <c r="CM24" s="90"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="94"/>
+      <c r="CH24" s="93"/>
+      <c r="CI24" s="94"/>
+      <c r="CJ24" s="93"/>
+      <c r="CK24" s="94"/>
+      <c r="CL24" s="93"/>
+      <c r="CM24" s="94"/>
       <c r="CN24" s="10"/>
-      <c r="CO24" s="89"/>
-      <c r="CP24" s="90"/>
-      <c r="CQ24" s="89"/>
-      <c r="CR24" s="90"/>
-      <c r="CS24" s="89"/>
-      <c r="CT24" s="90"/>
-      <c r="CU24" s="89"/>
-      <c r="CV24" s="90"/>
+      <c r="CO24" s="93"/>
+      <c r="CP24" s="94"/>
+      <c r="CQ24" s="93"/>
+      <c r="CR24" s="94"/>
+      <c r="CS24" s="93"/>
+      <c r="CT24" s="94"/>
+      <c r="CU24" s="93"/>
+      <c r="CV24" s="94"/>
       <c r="CW24" s="10"/>
       <c r="CX24" s="113"/>
     </row>
@@ -3853,35 +3853,35 @@
       <c r="B25" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="90"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="92"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="90"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="92"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="90"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="8"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="92"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
       <c r="AF25" s="87"/>
       <c r="AG25" s="88"/>
       <c r="AH25" s="60"/>
@@ -3916,70 +3916,70 @@
       <c r="BK25" s="87"/>
       <c r="BL25" s="88"/>
       <c r="BM25" s="8"/>
-      <c r="BN25" s="91"/>
-      <c r="BO25" s="92"/>
-      <c r="BP25" s="91"/>
-      <c r="BQ25" s="92"/>
+      <c r="BN25" s="89"/>
+      <c r="BO25" s="90"/>
+      <c r="BP25" s="89"/>
+      <c r="BQ25" s="90"/>
       <c r="BR25" s="60"/>
       <c r="BS25" s="61"/>
       <c r="BT25" s="61"/>
       <c r="BU25" s="62"/>
       <c r="BV25" s="8"/>
-      <c r="BW25" s="91"/>
-      <c r="BX25" s="92"/>
-      <c r="BY25" s="91"/>
-      <c r="BZ25" s="92"/>
-      <c r="CA25" s="91"/>
-      <c r="CB25" s="92"/>
-      <c r="CC25" s="91"/>
-      <c r="CD25" s="92"/>
+      <c r="BW25" s="89"/>
+      <c r="BX25" s="90"/>
+      <c r="BY25" s="89"/>
+      <c r="BZ25" s="90"/>
+      <c r="CA25" s="89"/>
+      <c r="CB25" s="90"/>
+      <c r="CC25" s="89"/>
+      <c r="CD25" s="90"/>
       <c r="CE25" s="8"/>
-      <c r="CF25" s="91"/>
-      <c r="CG25" s="92"/>
-      <c r="CH25" s="91"/>
-      <c r="CI25" s="92"/>
-      <c r="CJ25" s="91"/>
-      <c r="CK25" s="92"/>
-      <c r="CL25" s="91"/>
-      <c r="CM25" s="92"/>
+      <c r="CF25" s="89"/>
+      <c r="CG25" s="90"/>
+      <c r="CH25" s="89"/>
+      <c r="CI25" s="90"/>
+      <c r="CJ25" s="89"/>
+      <c r="CK25" s="90"/>
+      <c r="CL25" s="89"/>
+      <c r="CM25" s="90"/>
       <c r="CN25" s="8"/>
-      <c r="CO25" s="91"/>
-      <c r="CP25" s="92"/>
-      <c r="CQ25" s="91"/>
-      <c r="CR25" s="92"/>
-      <c r="CS25" s="91"/>
-      <c r="CT25" s="92"/>
-      <c r="CU25" s="91"/>
-      <c r="CV25" s="92"/>
+      <c r="CO25" s="89"/>
+      <c r="CP25" s="90"/>
+      <c r="CQ25" s="89"/>
+      <c r="CR25" s="90"/>
+      <c r="CS25" s="89"/>
+      <c r="CT25" s="90"/>
+      <c r="CU25" s="89"/>
+      <c r="CV25" s="90"/>
       <c r="CW25" s="8"/>
       <c r="CX25" s="113"/>
     </row>
     <row r="26" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="125"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="90"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="94"/>
       <c r="T26" s="9"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="90"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="82"/>
       <c r="AB26" s="83"/>
       <c r="AC26" s="9"/>
@@ -4019,41 +4019,41 @@
       <c r="BK26" s="101"/>
       <c r="BL26" s="102"/>
       <c r="BM26" s="9"/>
-      <c r="BN26" s="89"/>
-      <c r="BO26" s="90"/>
-      <c r="BP26" s="89"/>
-      <c r="BQ26" s="90"/>
+      <c r="BN26" s="93"/>
+      <c r="BO26" s="94"/>
+      <c r="BP26" s="93"/>
+      <c r="BQ26" s="94"/>
       <c r="BR26" s="60"/>
       <c r="BS26" s="61"/>
       <c r="BT26" s="61"/>
       <c r="BU26" s="62"/>
       <c r="BV26" s="10"/>
-      <c r="BW26" s="89"/>
-      <c r="BX26" s="90"/>
-      <c r="BY26" s="89"/>
-      <c r="BZ26" s="90"/>
-      <c r="CA26" s="89"/>
-      <c r="CB26" s="90"/>
-      <c r="CC26" s="89"/>
-      <c r="CD26" s="90"/>
+      <c r="BW26" s="93"/>
+      <c r="BX26" s="94"/>
+      <c r="BY26" s="93"/>
+      <c r="BZ26" s="94"/>
+      <c r="CA26" s="93"/>
+      <c r="CB26" s="94"/>
+      <c r="CC26" s="93"/>
+      <c r="CD26" s="94"/>
       <c r="CE26" s="11"/>
-      <c r="CF26" s="89"/>
-      <c r="CG26" s="90"/>
-      <c r="CH26" s="89"/>
-      <c r="CI26" s="90"/>
-      <c r="CJ26" s="89"/>
-      <c r="CK26" s="90"/>
-      <c r="CL26" s="89"/>
-      <c r="CM26" s="90"/>
+      <c r="CF26" s="93"/>
+      <c r="CG26" s="94"/>
+      <c r="CH26" s="93"/>
+      <c r="CI26" s="94"/>
+      <c r="CJ26" s="93"/>
+      <c r="CK26" s="94"/>
+      <c r="CL26" s="93"/>
+      <c r="CM26" s="94"/>
       <c r="CN26" s="10"/>
-      <c r="CO26" s="89"/>
-      <c r="CP26" s="90"/>
-      <c r="CQ26" s="89"/>
-      <c r="CR26" s="90"/>
-      <c r="CS26" s="89"/>
-      <c r="CT26" s="90"/>
-      <c r="CU26" s="89"/>
-      <c r="CV26" s="90"/>
+      <c r="CO26" s="93"/>
+      <c r="CP26" s="94"/>
+      <c r="CQ26" s="93"/>
+      <c r="CR26" s="94"/>
+      <c r="CS26" s="93"/>
+      <c r="CT26" s="94"/>
+      <c r="CU26" s="93"/>
+      <c r="CV26" s="94"/>
       <c r="CW26" s="10"/>
       <c r="CX26" s="113"/>
     </row>
@@ -4061,32 +4061,32 @@
       <c r="B27" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="92"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="90"/>
       <c r="T27" s="8"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="90"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="58"/>
       <c r="AE27" s="59"/>
@@ -4124,72 +4124,72 @@
       <c r="BK27" s="87"/>
       <c r="BL27" s="88"/>
       <c r="BM27" s="8"/>
-      <c r="BN27" s="91"/>
-      <c r="BO27" s="92"/>
-      <c r="BP27" s="91"/>
-      <c r="BQ27" s="92"/>
+      <c r="BN27" s="89"/>
+      <c r="BO27" s="90"/>
+      <c r="BP27" s="89"/>
+      <c r="BQ27" s="90"/>
       <c r="BR27" s="60"/>
       <c r="BS27" s="61"/>
       <c r="BT27" s="61"/>
       <c r="BU27" s="62"/>
       <c r="BV27" s="8"/>
-      <c r="BW27" s="91"/>
-      <c r="BX27" s="92"/>
-      <c r="BY27" s="91"/>
-      <c r="BZ27" s="92"/>
-      <c r="CA27" s="91"/>
-      <c r="CB27" s="92"/>
-      <c r="CC27" s="91"/>
-      <c r="CD27" s="92"/>
+      <c r="BW27" s="89"/>
+      <c r="BX27" s="90"/>
+      <c r="BY27" s="89"/>
+      <c r="BZ27" s="90"/>
+      <c r="CA27" s="89"/>
+      <c r="CB27" s="90"/>
+      <c r="CC27" s="89"/>
+      <c r="CD27" s="90"/>
       <c r="CE27" s="8"/>
-      <c r="CF27" s="91"/>
-      <c r="CG27" s="92"/>
-      <c r="CH27" s="91"/>
-      <c r="CI27" s="92"/>
-      <c r="CJ27" s="91"/>
-      <c r="CK27" s="92"/>
-      <c r="CL27" s="91"/>
-      <c r="CM27" s="92"/>
+      <c r="CF27" s="89"/>
+      <c r="CG27" s="90"/>
+      <c r="CH27" s="89"/>
+      <c r="CI27" s="90"/>
+      <c r="CJ27" s="89"/>
+      <c r="CK27" s="90"/>
+      <c r="CL27" s="89"/>
+      <c r="CM27" s="90"/>
       <c r="CN27" s="8"/>
-      <c r="CO27" s="91"/>
-      <c r="CP27" s="92"/>
-      <c r="CQ27" s="91"/>
-      <c r="CR27" s="92"/>
-      <c r="CS27" s="91"/>
-      <c r="CT27" s="92"/>
-      <c r="CU27" s="91"/>
-      <c r="CV27" s="92"/>
+      <c r="CO27" s="89"/>
+      <c r="CP27" s="90"/>
+      <c r="CQ27" s="89"/>
+      <c r="CR27" s="90"/>
+      <c r="CS27" s="89"/>
+      <c r="CT27" s="90"/>
+      <c r="CU27" s="89"/>
+      <c r="CV27" s="90"/>
       <c r="CW27" s="8"/>
       <c r="CX27" s="113"/>
     </row>
     <row r="28" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="125"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="90"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="94"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="90"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="94"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="82"/>
       <c r="AE28" s="83"/>
@@ -4200,19 +4200,19 @@
       <c r="AJ28" s="61"/>
       <c r="AK28" s="62"/>
       <c r="AL28" s="9"/>
-      <c r="AM28" s="99"/>
-      <c r="AN28" s="100"/>
-      <c r="AO28" s="99"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="99"/>
-      <c r="AR28" s="100"/>
-      <c r="AS28" s="99"/>
-      <c r="AT28" s="100"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="83"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="83"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="83"/>
       <c r="AU28" s="9"/>
-      <c r="AV28" s="99"/>
-      <c r="AW28" s="100"/>
-      <c r="AX28" s="99"/>
-      <c r="AY28" s="100"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="71"/>
       <c r="AZ28" s="99"/>
       <c r="BA28" s="100"/>
       <c r="BB28" s="99"/>
@@ -4227,41 +4227,41 @@
       <c r="BK28" s="99"/>
       <c r="BL28" s="100"/>
       <c r="BM28" s="9"/>
-      <c r="BN28" s="89"/>
-      <c r="BO28" s="90"/>
-      <c r="BP28" s="89"/>
-      <c r="BQ28" s="90"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="94"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="94"/>
       <c r="BR28" s="60"/>
       <c r="BS28" s="61"/>
       <c r="BT28" s="61"/>
       <c r="BU28" s="62"/>
       <c r="BV28" s="10"/>
-      <c r="BW28" s="89"/>
-      <c r="BX28" s="90"/>
-      <c r="BY28" s="89"/>
-      <c r="BZ28" s="90"/>
-      <c r="CA28" s="89"/>
-      <c r="CB28" s="90"/>
-      <c r="CC28" s="89"/>
-      <c r="CD28" s="90"/>
+      <c r="BW28" s="93"/>
+      <c r="BX28" s="94"/>
+      <c r="BY28" s="93"/>
+      <c r="BZ28" s="94"/>
+      <c r="CA28" s="93"/>
+      <c r="CB28" s="94"/>
+      <c r="CC28" s="93"/>
+      <c r="CD28" s="94"/>
       <c r="CE28" s="11"/>
-      <c r="CF28" s="89"/>
-      <c r="CG28" s="90"/>
-      <c r="CH28" s="89"/>
-      <c r="CI28" s="90"/>
-      <c r="CJ28" s="89"/>
-      <c r="CK28" s="90"/>
-      <c r="CL28" s="89"/>
-      <c r="CM28" s="90"/>
+      <c r="CF28" s="93"/>
+      <c r="CG28" s="94"/>
+      <c r="CH28" s="93"/>
+      <c r="CI28" s="94"/>
+      <c r="CJ28" s="93"/>
+      <c r="CK28" s="94"/>
+      <c r="CL28" s="93"/>
+      <c r="CM28" s="94"/>
       <c r="CN28" s="10"/>
-      <c r="CO28" s="89"/>
-      <c r="CP28" s="90"/>
-      <c r="CQ28" s="89"/>
-      <c r="CR28" s="90"/>
-      <c r="CS28" s="89"/>
-      <c r="CT28" s="90"/>
-      <c r="CU28" s="89"/>
-      <c r="CV28" s="90"/>
+      <c r="CO28" s="93"/>
+      <c r="CP28" s="94"/>
+      <c r="CQ28" s="93"/>
+      <c r="CR28" s="94"/>
+      <c r="CS28" s="93"/>
+      <c r="CT28" s="94"/>
+      <c r="CU28" s="93"/>
+      <c r="CV28" s="94"/>
       <c r="CW28" s="10"/>
       <c r="CX28" s="113"/>
     </row>
@@ -4269,32 +4269,32 @@
       <c r="B29" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="92"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="90"/>
       <c r="T29" s="8"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="92"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="90"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="85"/>
       <c r="AE29" s="86"/>
@@ -4332,72 +4332,72 @@
       <c r="BK29" s="87"/>
       <c r="BL29" s="88"/>
       <c r="BM29" s="8"/>
-      <c r="BN29" s="91"/>
-      <c r="BO29" s="92"/>
-      <c r="BP29" s="91"/>
-      <c r="BQ29" s="92"/>
+      <c r="BN29" s="89"/>
+      <c r="BO29" s="90"/>
+      <c r="BP29" s="89"/>
+      <c r="BQ29" s="90"/>
       <c r="BR29" s="60"/>
       <c r="BS29" s="61"/>
       <c r="BT29" s="61"/>
       <c r="BU29" s="62"/>
       <c r="BV29" s="8"/>
-      <c r="BW29" s="91"/>
-      <c r="BX29" s="92"/>
-      <c r="BY29" s="91"/>
-      <c r="BZ29" s="92"/>
-      <c r="CA29" s="91"/>
-      <c r="CB29" s="92"/>
-      <c r="CC29" s="91"/>
-      <c r="CD29" s="92"/>
+      <c r="BW29" s="89"/>
+      <c r="BX29" s="90"/>
+      <c r="BY29" s="89"/>
+      <c r="BZ29" s="90"/>
+      <c r="CA29" s="89"/>
+      <c r="CB29" s="90"/>
+      <c r="CC29" s="89"/>
+      <c r="CD29" s="90"/>
       <c r="CE29" s="8"/>
-      <c r="CF29" s="91"/>
-      <c r="CG29" s="92"/>
-      <c r="CH29" s="91"/>
-      <c r="CI29" s="92"/>
-      <c r="CJ29" s="91"/>
-      <c r="CK29" s="92"/>
-      <c r="CL29" s="91"/>
-      <c r="CM29" s="92"/>
+      <c r="CF29" s="89"/>
+      <c r="CG29" s="90"/>
+      <c r="CH29" s="89"/>
+      <c r="CI29" s="90"/>
+      <c r="CJ29" s="89"/>
+      <c r="CK29" s="90"/>
+      <c r="CL29" s="89"/>
+      <c r="CM29" s="90"/>
       <c r="CN29" s="8"/>
-      <c r="CO29" s="91"/>
-      <c r="CP29" s="92"/>
-      <c r="CQ29" s="91"/>
-      <c r="CR29" s="92"/>
-      <c r="CS29" s="91"/>
-      <c r="CT29" s="92"/>
-      <c r="CU29" s="91"/>
-      <c r="CV29" s="92"/>
+      <c r="CO29" s="89"/>
+      <c r="CP29" s="90"/>
+      <c r="CQ29" s="89"/>
+      <c r="CR29" s="90"/>
+      <c r="CS29" s="89"/>
+      <c r="CT29" s="90"/>
+      <c r="CU29" s="89"/>
+      <c r="CV29" s="90"/>
       <c r="CW29" s="8"/>
       <c r="CX29" s="113"/>
     </row>
     <row r="30" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="125"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="90"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="94"/>
       <c r="T30" s="9"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="90"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="94"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="48"/>
       <c r="AE30" s="49"/>
@@ -4435,41 +4435,41 @@
       <c r="BK30" s="99"/>
       <c r="BL30" s="100"/>
       <c r="BM30" s="9"/>
-      <c r="BN30" s="89"/>
-      <c r="BO30" s="90"/>
-      <c r="BP30" s="89"/>
-      <c r="BQ30" s="90"/>
+      <c r="BN30" s="93"/>
+      <c r="BO30" s="94"/>
+      <c r="BP30" s="93"/>
+      <c r="BQ30" s="94"/>
       <c r="BR30" s="60"/>
       <c r="BS30" s="61"/>
       <c r="BT30" s="61"/>
       <c r="BU30" s="62"/>
       <c r="BV30" s="10"/>
-      <c r="BW30" s="89"/>
-      <c r="BX30" s="90"/>
-      <c r="BY30" s="89"/>
-      <c r="BZ30" s="90"/>
-      <c r="CA30" s="89"/>
-      <c r="CB30" s="90"/>
-      <c r="CC30" s="89"/>
-      <c r="CD30" s="90"/>
+      <c r="BW30" s="93"/>
+      <c r="BX30" s="94"/>
+      <c r="BY30" s="93"/>
+      <c r="BZ30" s="94"/>
+      <c r="CA30" s="93"/>
+      <c r="CB30" s="94"/>
+      <c r="CC30" s="93"/>
+      <c r="CD30" s="94"/>
       <c r="CE30" s="11"/>
-      <c r="CF30" s="89"/>
-      <c r="CG30" s="90"/>
-      <c r="CH30" s="89"/>
-      <c r="CI30" s="90"/>
-      <c r="CJ30" s="89"/>
-      <c r="CK30" s="90"/>
-      <c r="CL30" s="89"/>
-      <c r="CM30" s="90"/>
+      <c r="CF30" s="93"/>
+      <c r="CG30" s="94"/>
+      <c r="CH30" s="93"/>
+      <c r="CI30" s="94"/>
+      <c r="CJ30" s="93"/>
+      <c r="CK30" s="94"/>
+      <c r="CL30" s="93"/>
+      <c r="CM30" s="94"/>
       <c r="CN30" s="10"/>
-      <c r="CO30" s="89"/>
-      <c r="CP30" s="90"/>
-      <c r="CQ30" s="89"/>
-      <c r="CR30" s="90"/>
-      <c r="CS30" s="89"/>
-      <c r="CT30" s="90"/>
-      <c r="CU30" s="89"/>
-      <c r="CV30" s="90"/>
+      <c r="CO30" s="93"/>
+      <c r="CP30" s="94"/>
+      <c r="CQ30" s="93"/>
+      <c r="CR30" s="94"/>
+      <c r="CS30" s="93"/>
+      <c r="CT30" s="94"/>
+      <c r="CU30" s="93"/>
+      <c r="CV30" s="94"/>
       <c r="CW30" s="10"/>
       <c r="CX30" s="113"/>
     </row>
@@ -4477,32 +4477,32 @@
       <c r="B31" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="90"/>
       <c r="T31" s="8"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="90"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="46"/>
       <c r="AE31" s="47"/>
@@ -4540,72 +4540,72 @@
       <c r="BK31" s="85"/>
       <c r="BL31" s="86"/>
       <c r="BM31" s="8"/>
-      <c r="BN31" s="91"/>
-      <c r="BO31" s="92"/>
-      <c r="BP31" s="91"/>
-      <c r="BQ31" s="92"/>
+      <c r="BN31" s="89"/>
+      <c r="BO31" s="90"/>
+      <c r="BP31" s="89"/>
+      <c r="BQ31" s="90"/>
       <c r="BR31" s="60"/>
       <c r="BS31" s="61"/>
       <c r="BT31" s="61"/>
       <c r="BU31" s="62"/>
       <c r="BV31" s="8"/>
-      <c r="BW31" s="91"/>
-      <c r="BX31" s="92"/>
-      <c r="BY31" s="91"/>
-      <c r="BZ31" s="92"/>
-      <c r="CA31" s="91"/>
-      <c r="CB31" s="92"/>
-      <c r="CC31" s="91"/>
-      <c r="CD31" s="92"/>
+      <c r="BW31" s="89"/>
+      <c r="BX31" s="90"/>
+      <c r="BY31" s="89"/>
+      <c r="BZ31" s="90"/>
+      <c r="CA31" s="89"/>
+      <c r="CB31" s="90"/>
+      <c r="CC31" s="89"/>
+      <c r="CD31" s="90"/>
       <c r="CE31" s="8"/>
-      <c r="CF31" s="91"/>
-      <c r="CG31" s="92"/>
-      <c r="CH31" s="91"/>
-      <c r="CI31" s="92"/>
-      <c r="CJ31" s="91"/>
-      <c r="CK31" s="92"/>
-      <c r="CL31" s="91"/>
-      <c r="CM31" s="92"/>
+      <c r="CF31" s="89"/>
+      <c r="CG31" s="90"/>
+      <c r="CH31" s="89"/>
+      <c r="CI31" s="90"/>
+      <c r="CJ31" s="89"/>
+      <c r="CK31" s="90"/>
+      <c r="CL31" s="89"/>
+      <c r="CM31" s="90"/>
       <c r="CN31" s="8"/>
-      <c r="CO31" s="91"/>
-      <c r="CP31" s="92"/>
-      <c r="CQ31" s="91"/>
-      <c r="CR31" s="92"/>
-      <c r="CS31" s="91"/>
-      <c r="CT31" s="92"/>
-      <c r="CU31" s="91"/>
-      <c r="CV31" s="92"/>
+      <c r="CO31" s="89"/>
+      <c r="CP31" s="90"/>
+      <c r="CQ31" s="89"/>
+      <c r="CR31" s="90"/>
+      <c r="CS31" s="89"/>
+      <c r="CT31" s="90"/>
+      <c r="CU31" s="89"/>
+      <c r="CV31" s="90"/>
       <c r="CW31" s="8"/>
       <c r="CX31" s="113"/>
     </row>
     <row r="32" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="125"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="90"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="94"/>
       <c r="T32" s="9"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="90"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="94"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="48"/>
       <c r="AE32" s="49"/>
@@ -4643,41 +4643,41 @@
       <c r="BK32" s="101"/>
       <c r="BL32" s="102"/>
       <c r="BM32" s="9"/>
-      <c r="BN32" s="89"/>
-      <c r="BO32" s="90"/>
-      <c r="BP32" s="89"/>
-      <c r="BQ32" s="90"/>
+      <c r="BN32" s="93"/>
+      <c r="BO32" s="94"/>
+      <c r="BP32" s="93"/>
+      <c r="BQ32" s="94"/>
       <c r="BR32" s="60"/>
       <c r="BS32" s="61"/>
       <c r="BT32" s="61"/>
       <c r="BU32" s="62"/>
       <c r="BV32" s="10"/>
-      <c r="BW32" s="89"/>
-      <c r="BX32" s="90"/>
-      <c r="BY32" s="89"/>
-      <c r="BZ32" s="90"/>
-      <c r="CA32" s="89"/>
-      <c r="CB32" s="90"/>
-      <c r="CC32" s="89"/>
-      <c r="CD32" s="90"/>
+      <c r="BW32" s="93"/>
+      <c r="BX32" s="94"/>
+      <c r="BY32" s="93"/>
+      <c r="BZ32" s="94"/>
+      <c r="CA32" s="93"/>
+      <c r="CB32" s="94"/>
+      <c r="CC32" s="93"/>
+      <c r="CD32" s="94"/>
       <c r="CE32" s="11"/>
-      <c r="CF32" s="89"/>
-      <c r="CG32" s="90"/>
-      <c r="CH32" s="89"/>
-      <c r="CI32" s="90"/>
-      <c r="CJ32" s="89"/>
-      <c r="CK32" s="90"/>
-      <c r="CL32" s="89"/>
-      <c r="CM32" s="90"/>
+      <c r="CF32" s="93"/>
+      <c r="CG32" s="94"/>
+      <c r="CH32" s="93"/>
+      <c r="CI32" s="94"/>
+      <c r="CJ32" s="93"/>
+      <c r="CK32" s="94"/>
+      <c r="CL32" s="93"/>
+      <c r="CM32" s="94"/>
       <c r="CN32" s="10"/>
-      <c r="CO32" s="89"/>
-      <c r="CP32" s="90"/>
-      <c r="CQ32" s="89"/>
-      <c r="CR32" s="90"/>
-      <c r="CS32" s="89"/>
-      <c r="CT32" s="90"/>
-      <c r="CU32" s="89"/>
-      <c r="CV32" s="90"/>
+      <c r="CO32" s="93"/>
+      <c r="CP32" s="94"/>
+      <c r="CQ32" s="93"/>
+      <c r="CR32" s="94"/>
+      <c r="CS32" s="93"/>
+      <c r="CT32" s="94"/>
+      <c r="CU32" s="93"/>
+      <c r="CV32" s="94"/>
       <c r="CW32" s="10"/>
       <c r="CX32" s="113"/>
     </row>
@@ -4685,32 +4685,32 @@
       <c r="B33" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
       <c r="K33" s="24"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="92"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="90"/>
       <c r="T33" s="24"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="92"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="90"/>
       <c r="AC33" s="24"/>
       <c r="AD33" s="85"/>
       <c r="AE33" s="86"/>
@@ -4757,99 +4757,99 @@
       <c r="BT33" s="61"/>
       <c r="BU33" s="62"/>
       <c r="BV33" s="24"/>
-      <c r="BW33" s="91"/>
-      <c r="BX33" s="92"/>
-      <c r="BY33" s="91"/>
-      <c r="BZ33" s="92"/>
-      <c r="CA33" s="91"/>
-      <c r="CB33" s="92"/>
-      <c r="CC33" s="91"/>
-      <c r="CD33" s="92"/>
+      <c r="BW33" s="89"/>
+      <c r="BX33" s="90"/>
+      <c r="BY33" s="89"/>
+      <c r="BZ33" s="90"/>
+      <c r="CA33" s="89"/>
+      <c r="CB33" s="90"/>
+      <c r="CC33" s="89"/>
+      <c r="CD33" s="90"/>
       <c r="CE33" s="8"/>
-      <c r="CF33" s="91"/>
-      <c r="CG33" s="92"/>
-      <c r="CH33" s="91"/>
-      <c r="CI33" s="92"/>
-      <c r="CJ33" s="91"/>
-      <c r="CK33" s="92"/>
-      <c r="CL33" s="91"/>
-      <c r="CM33" s="92"/>
+      <c r="CF33" s="89"/>
+      <c r="CG33" s="90"/>
+      <c r="CH33" s="89"/>
+      <c r="CI33" s="90"/>
+      <c r="CJ33" s="89"/>
+      <c r="CK33" s="90"/>
+      <c r="CL33" s="89"/>
+      <c r="CM33" s="90"/>
       <c r="CN33" s="8"/>
-      <c r="CO33" s="91"/>
-      <c r="CP33" s="92"/>
-      <c r="CQ33" s="91"/>
-      <c r="CR33" s="92"/>
-      <c r="CS33" s="91"/>
-      <c r="CT33" s="92"/>
-      <c r="CU33" s="91"/>
-      <c r="CV33" s="92"/>
+      <c r="CO33" s="89"/>
+      <c r="CP33" s="90"/>
+      <c r="CQ33" s="89"/>
+      <c r="CR33" s="90"/>
+      <c r="CS33" s="89"/>
+      <c r="CT33" s="90"/>
+      <c r="CU33" s="89"/>
+      <c r="CV33" s="90"/>
       <c r="CW33" s="8"/>
       <c r="CX33" s="113"/>
     </row>
     <row r="34" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="125"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="94"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="90"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="94"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="90"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="94"/>
       <c r="AC34" s="10"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="94"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="92"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="92"/>
       <c r="AH34" s="60"/>
       <c r="AI34" s="61"/>
       <c r="AJ34" s="61"/>
       <c r="AK34" s="62"/>
       <c r="AL34" s="9"/>
-      <c r="AM34" s="93"/>
-      <c r="AN34" s="94"/>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="94"/>
-      <c r="AQ34" s="93"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="93"/>
-      <c r="AT34" s="94"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="92"/>
+      <c r="AO34" s="91"/>
+      <c r="AP34" s="92"/>
+      <c r="AQ34" s="91"/>
+      <c r="AR34" s="92"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="92"/>
       <c r="AU34" s="9"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="94"/>
-      <c r="AX34" s="93"/>
-      <c r="AY34" s="94"/>
-      <c r="AZ34" s="93"/>
-      <c r="BA34" s="94"/>
-      <c r="BB34" s="93"/>
-      <c r="BC34" s="94"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="92"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="92"/>
+      <c r="AZ34" s="91"/>
+      <c r="BA34" s="92"/>
+      <c r="BB34" s="91"/>
+      <c r="BC34" s="92"/>
       <c r="BD34" s="9"/>
-      <c r="BE34" s="93"/>
-      <c r="BF34" s="94"/>
-      <c r="BG34" s="93"/>
-      <c r="BH34" s="94"/>
-      <c r="BI34" s="93"/>
-      <c r="BJ34" s="94"/>
-      <c r="BK34" s="93"/>
-      <c r="BL34" s="94"/>
+      <c r="BE34" s="91"/>
+      <c r="BF34" s="92"/>
+      <c r="BG34" s="91"/>
+      <c r="BH34" s="92"/>
+      <c r="BI34" s="91"/>
+      <c r="BJ34" s="92"/>
+      <c r="BK34" s="91"/>
+      <c r="BL34" s="92"/>
       <c r="BM34" s="9"/>
       <c r="BN34" s="44"/>
       <c r="BO34" s="45"/>
@@ -4860,32 +4860,32 @@
       <c r="BT34" s="61"/>
       <c r="BU34" s="62"/>
       <c r="BV34" s="10"/>
-      <c r="BW34" s="89"/>
-      <c r="BX34" s="90"/>
-      <c r="BY34" s="89"/>
-      <c r="BZ34" s="90"/>
-      <c r="CA34" s="89"/>
-      <c r="CB34" s="90"/>
-      <c r="CC34" s="89"/>
-      <c r="CD34" s="90"/>
+      <c r="BW34" s="93"/>
+      <c r="BX34" s="94"/>
+      <c r="BY34" s="93"/>
+      <c r="BZ34" s="94"/>
+      <c r="CA34" s="93"/>
+      <c r="CB34" s="94"/>
+      <c r="CC34" s="93"/>
+      <c r="CD34" s="94"/>
       <c r="CE34" s="11"/>
-      <c r="CF34" s="89"/>
-      <c r="CG34" s="90"/>
-      <c r="CH34" s="89"/>
-      <c r="CI34" s="90"/>
-      <c r="CJ34" s="89"/>
-      <c r="CK34" s="90"/>
-      <c r="CL34" s="89"/>
-      <c r="CM34" s="90"/>
+      <c r="CF34" s="93"/>
+      <c r="CG34" s="94"/>
+      <c r="CH34" s="93"/>
+      <c r="CI34" s="94"/>
+      <c r="CJ34" s="93"/>
+      <c r="CK34" s="94"/>
+      <c r="CL34" s="93"/>
+      <c r="CM34" s="94"/>
       <c r="CN34" s="10"/>
-      <c r="CO34" s="89"/>
-      <c r="CP34" s="90"/>
-      <c r="CQ34" s="89"/>
-      <c r="CR34" s="90"/>
-      <c r="CS34" s="89"/>
-      <c r="CT34" s="90"/>
-      <c r="CU34" s="89"/>
-      <c r="CV34" s="90"/>
+      <c r="CO34" s="93"/>
+      <c r="CP34" s="94"/>
+      <c r="CQ34" s="93"/>
+      <c r="CR34" s="94"/>
+      <c r="CS34" s="93"/>
+      <c r="CT34" s="94"/>
+      <c r="CU34" s="93"/>
+      <c r="CV34" s="94"/>
       <c r="CW34" s="10"/>
       <c r="CX34" s="113"/>
     </row>
@@ -4893,32 +4893,32 @@
       <c r="B35" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="90"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="92"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="90"/>
       <c r="T35" s="8"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="92"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="90"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="85"/>
       <c r="AE35" s="86"/>
@@ -4965,99 +4965,99 @@
       <c r="BT35" s="61"/>
       <c r="BU35" s="62"/>
       <c r="BV35" s="8"/>
-      <c r="BW35" s="91"/>
-      <c r="BX35" s="92"/>
-      <c r="BY35" s="91"/>
-      <c r="BZ35" s="92"/>
-      <c r="CA35" s="91"/>
-      <c r="CB35" s="92"/>
-      <c r="CC35" s="91"/>
-      <c r="CD35" s="92"/>
+      <c r="BW35" s="89"/>
+      <c r="BX35" s="90"/>
+      <c r="BY35" s="89"/>
+      <c r="BZ35" s="90"/>
+      <c r="CA35" s="89"/>
+      <c r="CB35" s="90"/>
+      <c r="CC35" s="89"/>
+      <c r="CD35" s="90"/>
       <c r="CE35" s="8"/>
-      <c r="CF35" s="91"/>
-      <c r="CG35" s="92"/>
-      <c r="CH35" s="91"/>
-      <c r="CI35" s="92"/>
-      <c r="CJ35" s="91"/>
-      <c r="CK35" s="92"/>
-      <c r="CL35" s="91"/>
-      <c r="CM35" s="92"/>
+      <c r="CF35" s="89"/>
+      <c r="CG35" s="90"/>
+      <c r="CH35" s="89"/>
+      <c r="CI35" s="90"/>
+      <c r="CJ35" s="89"/>
+      <c r="CK35" s="90"/>
+      <c r="CL35" s="89"/>
+      <c r="CM35" s="90"/>
       <c r="CN35" s="8"/>
-      <c r="CO35" s="91"/>
-      <c r="CP35" s="92"/>
-      <c r="CQ35" s="91"/>
-      <c r="CR35" s="92"/>
-      <c r="CS35" s="91"/>
-      <c r="CT35" s="92"/>
-      <c r="CU35" s="91"/>
-      <c r="CV35" s="92"/>
+      <c r="CO35" s="89"/>
+      <c r="CP35" s="90"/>
+      <c r="CQ35" s="89"/>
+      <c r="CR35" s="90"/>
+      <c r="CS35" s="89"/>
+      <c r="CT35" s="90"/>
+      <c r="CU35" s="89"/>
+      <c r="CV35" s="90"/>
       <c r="CW35" s="8"/>
       <c r="CX35" s="113"/>
     </row>
     <row r="36" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="125"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="90"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="94"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="90"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="94"/>
       <c r="AC36" s="8"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="94"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="94"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="92"/>
       <c r="AH36" s="60"/>
       <c r="AI36" s="61"/>
       <c r="AJ36" s="61"/>
       <c r="AK36" s="62"/>
       <c r="AL36" s="9"/>
-      <c r="AM36" s="93"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="93"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="93"/>
-      <c r="AT36" s="94"/>
+      <c r="AM36" s="91"/>
+      <c r="AN36" s="92"/>
+      <c r="AO36" s="91"/>
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="91"/>
+      <c r="AR36" s="92"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="92"/>
       <c r="AU36" s="9"/>
-      <c r="AV36" s="93"/>
-      <c r="AW36" s="94"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="93"/>
-      <c r="BA36" s="94"/>
-      <c r="BB36" s="93"/>
-      <c r="BC36" s="94"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="92"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="92"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="92"/>
       <c r="BD36" s="9"/>
-      <c r="BE36" s="93"/>
-      <c r="BF36" s="94"/>
-      <c r="BG36" s="93"/>
-      <c r="BH36" s="94"/>
-      <c r="BI36" s="93"/>
-      <c r="BJ36" s="94"/>
-      <c r="BK36" s="93"/>
-      <c r="BL36" s="94"/>
+      <c r="BE36" s="91"/>
+      <c r="BF36" s="92"/>
+      <c r="BG36" s="91"/>
+      <c r="BH36" s="92"/>
+      <c r="BI36" s="91"/>
+      <c r="BJ36" s="92"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="92"/>
       <c r="BM36" s="9"/>
       <c r="BN36" s="44"/>
       <c r="BO36" s="45"/>
@@ -5068,32 +5068,32 @@
       <c r="BT36" s="61"/>
       <c r="BU36" s="62"/>
       <c r="BV36" s="10"/>
-      <c r="BW36" s="89"/>
-      <c r="BX36" s="90"/>
-      <c r="BY36" s="89"/>
-      <c r="BZ36" s="90"/>
-      <c r="CA36" s="89"/>
-      <c r="CB36" s="90"/>
-      <c r="CC36" s="89"/>
-      <c r="CD36" s="90"/>
+      <c r="BW36" s="93"/>
+      <c r="BX36" s="94"/>
+      <c r="BY36" s="93"/>
+      <c r="BZ36" s="94"/>
+      <c r="CA36" s="93"/>
+      <c r="CB36" s="94"/>
+      <c r="CC36" s="93"/>
+      <c r="CD36" s="94"/>
       <c r="CE36" s="11"/>
-      <c r="CF36" s="89"/>
-      <c r="CG36" s="90"/>
-      <c r="CH36" s="89"/>
-      <c r="CI36" s="90"/>
-      <c r="CJ36" s="89"/>
-      <c r="CK36" s="90"/>
-      <c r="CL36" s="89"/>
-      <c r="CM36" s="90"/>
+      <c r="CF36" s="93"/>
+      <c r="CG36" s="94"/>
+      <c r="CH36" s="93"/>
+      <c r="CI36" s="94"/>
+      <c r="CJ36" s="93"/>
+      <c r="CK36" s="94"/>
+      <c r="CL36" s="93"/>
+      <c r="CM36" s="94"/>
       <c r="CN36" s="10"/>
-      <c r="CO36" s="89"/>
-      <c r="CP36" s="90"/>
-      <c r="CQ36" s="89"/>
-      <c r="CR36" s="90"/>
-      <c r="CS36" s="89"/>
-      <c r="CT36" s="90"/>
-      <c r="CU36" s="89"/>
-      <c r="CV36" s="90"/>
+      <c r="CO36" s="93"/>
+      <c r="CP36" s="94"/>
+      <c r="CQ36" s="93"/>
+      <c r="CR36" s="94"/>
+      <c r="CS36" s="93"/>
+      <c r="CT36" s="94"/>
+      <c r="CU36" s="93"/>
+      <c r="CV36" s="94"/>
       <c r="CW36" s="10"/>
       <c r="CX36" s="113"/>
     </row>
@@ -5101,32 +5101,32 @@
       <c r="B37" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="92"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="90"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="92"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="90"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="85"/>
       <c r="AE37" s="86"/>
@@ -5204,68 +5204,68 @@
     </row>
     <row r="38" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="125"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="94"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="90"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="94"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="90"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="94"/>
       <c r="AC38" s="9"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="94"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="94"/>
+      <c r="AD38" s="91"/>
+      <c r="AE38" s="92"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="92"/>
       <c r="AH38" s="60"/>
       <c r="AI38" s="61"/>
       <c r="AJ38" s="61"/>
       <c r="AK38" s="62"/>
       <c r="AL38" s="10"/>
-      <c r="AM38" s="93"/>
-      <c r="AN38" s="94"/>
-      <c r="AO38" s="93"/>
-      <c r="AP38" s="94"/>
-      <c r="AQ38" s="93"/>
-      <c r="AR38" s="94"/>
-      <c r="AS38" s="93"/>
-      <c r="AT38" s="94"/>
+      <c r="AM38" s="91"/>
+      <c r="AN38" s="92"/>
+      <c r="AO38" s="91"/>
+      <c r="AP38" s="92"/>
+      <c r="AQ38" s="91"/>
+      <c r="AR38" s="92"/>
+      <c r="AS38" s="91"/>
+      <c r="AT38" s="92"/>
       <c r="AU38" s="11"/>
-      <c r="AV38" s="93"/>
-      <c r="AW38" s="94"/>
-      <c r="AX38" s="93"/>
-      <c r="AY38" s="94"/>
-      <c r="AZ38" s="93"/>
-      <c r="BA38" s="94"/>
-      <c r="BB38" s="93"/>
-      <c r="BC38" s="94"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="92"/>
+      <c r="AX38" s="91"/>
+      <c r="AY38" s="92"/>
+      <c r="AZ38" s="91"/>
+      <c r="BA38" s="92"/>
+      <c r="BB38" s="91"/>
+      <c r="BC38" s="92"/>
       <c r="BD38" s="11"/>
-      <c r="BE38" s="93"/>
-      <c r="BF38" s="94"/>
-      <c r="BG38" s="93"/>
-      <c r="BH38" s="94"/>
-      <c r="BI38" s="93"/>
-      <c r="BJ38" s="94"/>
-      <c r="BK38" s="93"/>
-      <c r="BL38" s="94"/>
+      <c r="BE38" s="91"/>
+      <c r="BF38" s="92"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="92"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="92"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="92"/>
       <c r="BM38" s="11"/>
       <c r="BN38" s="42"/>
       <c r="BO38" s="43"/>
@@ -5309,68 +5309,68 @@
       <c r="B39" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="92"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="90"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="92"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="90"/>
       <c r="T39" s="8"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="92"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="90"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="92"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="92"/>
+      <c r="AD39" s="89"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="89"/>
+      <c r="AG39" s="90"/>
       <c r="AH39" s="60"/>
       <c r="AI39" s="61"/>
       <c r="AJ39" s="61"/>
       <c r="AK39" s="62"/>
       <c r="AL39" s="8"/>
-      <c r="AM39" s="91"/>
-      <c r="AN39" s="92"/>
-      <c r="AO39" s="91"/>
-      <c r="AP39" s="92"/>
-      <c r="AQ39" s="91"/>
-      <c r="AR39" s="92"/>
-      <c r="AS39" s="91"/>
-      <c r="AT39" s="92"/>
+      <c r="AM39" s="89"/>
+      <c r="AN39" s="90"/>
+      <c r="AO39" s="89"/>
+      <c r="AP39" s="90"/>
+      <c r="AQ39" s="89"/>
+      <c r="AR39" s="90"/>
+      <c r="AS39" s="89"/>
+      <c r="AT39" s="90"/>
       <c r="AU39" s="8"/>
-      <c r="AV39" s="91"/>
-      <c r="AW39" s="92"/>
-      <c r="AX39" s="91"/>
-      <c r="AY39" s="92"/>
-      <c r="AZ39" s="91"/>
-      <c r="BA39" s="92"/>
-      <c r="BB39" s="91"/>
-      <c r="BC39" s="92"/>
+      <c r="AV39" s="89"/>
+      <c r="AW39" s="90"/>
+      <c r="AX39" s="89"/>
+      <c r="AY39" s="90"/>
+      <c r="AZ39" s="89"/>
+      <c r="BA39" s="90"/>
+      <c r="BB39" s="89"/>
+      <c r="BC39" s="90"/>
       <c r="BD39" s="8"/>
-      <c r="BE39" s="91"/>
-      <c r="BF39" s="92"/>
-      <c r="BG39" s="91"/>
-      <c r="BH39" s="92"/>
-      <c r="BI39" s="91"/>
-      <c r="BJ39" s="92"/>
-      <c r="BK39" s="91"/>
-      <c r="BL39" s="92"/>
+      <c r="BE39" s="89"/>
+      <c r="BF39" s="90"/>
+      <c r="BG39" s="89"/>
+      <c r="BH39" s="90"/>
+      <c r="BI39" s="89"/>
+      <c r="BJ39" s="90"/>
+      <c r="BK39" s="89"/>
+      <c r="BL39" s="90"/>
       <c r="BM39" s="8"/>
       <c r="BN39" s="85"/>
       <c r="BO39" s="86"/>
@@ -5412,68 +5412,68 @@
     </row>
     <row r="40" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="125"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="94"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="90"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="94"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="90"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="93"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="93"/>
+      <c r="AB40" s="94"/>
       <c r="AC40" s="9"/>
-      <c r="AD40" s="89"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="90"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="94"/>
       <c r="AH40" s="103"/>
       <c r="AI40" s="104"/>
       <c r="AJ40" s="104"/>
       <c r="AK40" s="105"/>
       <c r="AL40" s="9"/>
-      <c r="AM40" s="89"/>
-      <c r="AN40" s="90"/>
-      <c r="AO40" s="89"/>
-      <c r="AP40" s="90"/>
-      <c r="AQ40" s="89"/>
-      <c r="AR40" s="90"/>
-      <c r="AS40" s="89"/>
-      <c r="AT40" s="90"/>
+      <c r="AM40" s="93"/>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="93"/>
+      <c r="AP40" s="94"/>
+      <c r="AQ40" s="93"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="93"/>
+      <c r="AT40" s="94"/>
       <c r="AU40" s="9"/>
-      <c r="AV40" s="89"/>
-      <c r="AW40" s="90"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="90"/>
-      <c r="AZ40" s="89"/>
-      <c r="BA40" s="90"/>
-      <c r="BB40" s="89"/>
-      <c r="BC40" s="90"/>
+      <c r="AV40" s="93"/>
+      <c r="AW40" s="94"/>
+      <c r="AX40" s="93"/>
+      <c r="AY40" s="94"/>
+      <c r="AZ40" s="93"/>
+      <c r="BA40" s="94"/>
+      <c r="BB40" s="93"/>
+      <c r="BC40" s="94"/>
       <c r="BD40" s="9"/>
-      <c r="BE40" s="89"/>
-      <c r="BF40" s="90"/>
-      <c r="BG40" s="89"/>
-      <c r="BH40" s="90"/>
-      <c r="BI40" s="89"/>
-      <c r="BJ40" s="90"/>
-      <c r="BK40" s="89"/>
-      <c r="BL40" s="90"/>
+      <c r="BE40" s="93"/>
+      <c r="BF40" s="94"/>
+      <c r="BG40" s="93"/>
+      <c r="BH40" s="94"/>
+      <c r="BI40" s="93"/>
+      <c r="BJ40" s="94"/>
+      <c r="BK40" s="93"/>
+      <c r="BL40" s="94"/>
       <c r="BM40" s="9"/>
       <c r="BN40" s="42"/>
       <c r="BO40" s="43"/>
@@ -5622,32 +5622,32 @@
       <c r="B42" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="90"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="92"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="90"/>
       <c r="T42" s="8"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="91"/>
-      <c r="AB42" s="92"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="90"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="85"/>
       <c r="AE42" s="86"/>
@@ -5703,8 +5703,8 @@
       <c r="CC42" s="128"/>
       <c r="CD42" s="129"/>
       <c r="CE42" s="8"/>
-      <c r="CF42" s="91"/>
-      <c r="CG42" s="92"/>
+      <c r="CF42" s="89"/>
+      <c r="CG42" s="90"/>
       <c r="CH42" s="13"/>
       <c r="CI42" s="14"/>
       <c r="CJ42" s="13"/>
@@ -5725,68 +5725,68 @@
     </row>
     <row r="43" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="127"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="90"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="90"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="94"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="89"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="90"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="94"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="94"/>
+      <c r="AD43" s="91"/>
+      <c r="AE43" s="92"/>
+      <c r="AF43" s="91"/>
+      <c r="AG43" s="92"/>
       <c r="AH43" s="60"/>
       <c r="AI43" s="61"/>
       <c r="AJ43" s="61"/>
       <c r="AK43" s="62"/>
       <c r="AL43" s="10"/>
-      <c r="AM43" s="93"/>
-      <c r="AN43" s="94"/>
-      <c r="AO43" s="93"/>
-      <c r="AP43" s="94"/>
-      <c r="AQ43" s="93"/>
-      <c r="AR43" s="94"/>
-      <c r="AS43" s="93"/>
-      <c r="AT43" s="94"/>
+      <c r="AM43" s="91"/>
+      <c r="AN43" s="92"/>
+      <c r="AO43" s="91"/>
+      <c r="AP43" s="92"/>
+      <c r="AQ43" s="91"/>
+      <c r="AR43" s="92"/>
+      <c r="AS43" s="91"/>
+      <c r="AT43" s="92"/>
       <c r="AU43" s="11"/>
-      <c r="AV43" s="93"/>
-      <c r="AW43" s="94"/>
-      <c r="AX43" s="93"/>
-      <c r="AY43" s="94"/>
-      <c r="AZ43" s="93"/>
-      <c r="BA43" s="94"/>
-      <c r="BB43" s="93"/>
-      <c r="BC43" s="94"/>
+      <c r="AV43" s="91"/>
+      <c r="AW43" s="92"/>
+      <c r="AX43" s="91"/>
+      <c r="AY43" s="92"/>
+      <c r="AZ43" s="91"/>
+      <c r="BA43" s="92"/>
+      <c r="BB43" s="91"/>
+      <c r="BC43" s="92"/>
       <c r="BD43" s="11"/>
-      <c r="BE43" s="93"/>
-      <c r="BF43" s="94"/>
-      <c r="BG43" s="93"/>
-      <c r="BH43" s="94"/>
-      <c r="BI43" s="93"/>
-      <c r="BJ43" s="94"/>
-      <c r="BK43" s="93"/>
-      <c r="BL43" s="94"/>
+      <c r="BE43" s="91"/>
+      <c r="BF43" s="92"/>
+      <c r="BG43" s="91"/>
+      <c r="BH43" s="92"/>
+      <c r="BI43" s="91"/>
+      <c r="BJ43" s="92"/>
+      <c r="BK43" s="91"/>
+      <c r="BL43" s="92"/>
       <c r="BM43" s="11"/>
       <c r="BN43" s="17"/>
       <c r="BO43" s="18"/>
@@ -5830,68 +5830,68 @@
       <c r="B44" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="90"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="92"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="90"/>
       <c r="T44" s="8"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="91"/>
-      <c r="AB44" s="92"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="90"/>
       <c r="AC44" s="8"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="92"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="90"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="90"/>
       <c r="AH44" s="60"/>
       <c r="AI44" s="61"/>
       <c r="AJ44" s="61"/>
       <c r="AK44" s="62"/>
       <c r="AL44" s="8"/>
-      <c r="AM44" s="91"/>
-      <c r="AN44" s="92"/>
-      <c r="AO44" s="91"/>
-      <c r="AP44" s="92"/>
-      <c r="AQ44" s="91"/>
-      <c r="AR44" s="92"/>
-      <c r="AS44" s="91"/>
-      <c r="AT44" s="92"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="90"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="90"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="90"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="90"/>
       <c r="AU44" s="8"/>
-      <c r="AV44" s="91"/>
-      <c r="AW44" s="92"/>
-      <c r="AX44" s="91"/>
-      <c r="AY44" s="92"/>
-      <c r="AZ44" s="91"/>
-      <c r="BA44" s="92"/>
-      <c r="BB44" s="91"/>
-      <c r="BC44" s="92"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="90"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="90"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="90"/>
       <c r="BD44" s="8"/>
-      <c r="BE44" s="91"/>
-      <c r="BF44" s="92"/>
-      <c r="BG44" s="91"/>
-      <c r="BH44" s="92"/>
-      <c r="BI44" s="91"/>
-      <c r="BJ44" s="92"/>
-      <c r="BK44" s="91"/>
-      <c r="BL44" s="92"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="90"/>
+      <c r="BG44" s="89"/>
+      <c r="BH44" s="90"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="90"/>
+      <c r="BK44" s="89"/>
+      <c r="BL44" s="90"/>
       <c r="BM44" s="8"/>
       <c r="BN44" s="13"/>
       <c r="BO44" s="14"/>
@@ -5913,8 +5913,8 @@
       <c r="CE44" s="8"/>
       <c r="CF44" s="58"/>
       <c r="CG44" s="59"/>
-      <c r="CH44" s="91"/>
-      <c r="CI44" s="92"/>
+      <c r="CH44" s="89"/>
+      <c r="CI44" s="90"/>
       <c r="CJ44" s="13"/>
       <c r="CK44" s="14"/>
       <c r="CL44" s="13"/>
@@ -5933,68 +5933,68 @@
     </row>
     <row r="45" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="125"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="90"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="94"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="90"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="94"/>
       <c r="T45" s="8"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="90"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="90"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="94"/>
       <c r="AC45" s="8"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="90"/>
-      <c r="AF45" s="89"/>
-      <c r="AG45" s="90"/>
+      <c r="AD45" s="93"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="94"/>
       <c r="AH45" s="103"/>
       <c r="AI45" s="104"/>
       <c r="AJ45" s="104"/>
       <c r="AK45" s="105"/>
       <c r="AL45" s="9"/>
-      <c r="AM45" s="89"/>
-      <c r="AN45" s="90"/>
-      <c r="AO45" s="89"/>
-      <c r="AP45" s="90"/>
-      <c r="AQ45" s="89"/>
-      <c r="AR45" s="90"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="90"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="93"/>
+      <c r="AP45" s="94"/>
+      <c r="AQ45" s="93"/>
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="93"/>
+      <c r="AT45" s="94"/>
       <c r="AU45" s="9"/>
-      <c r="AV45" s="89"/>
-      <c r="AW45" s="90"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="90"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="90"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="90"/>
+      <c r="AV45" s="93"/>
+      <c r="AW45" s="94"/>
+      <c r="AX45" s="93"/>
+      <c r="AY45" s="94"/>
+      <c r="AZ45" s="93"/>
+      <c r="BA45" s="94"/>
+      <c r="BB45" s="93"/>
+      <c r="BC45" s="94"/>
       <c r="BD45" s="9"/>
-      <c r="BE45" s="89"/>
-      <c r="BF45" s="90"/>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="90"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="90"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="90"/>
+      <c r="BE45" s="93"/>
+      <c r="BF45" s="94"/>
+      <c r="BG45" s="93"/>
+      <c r="BH45" s="94"/>
+      <c r="BI45" s="93"/>
+      <c r="BJ45" s="94"/>
+      <c r="BK45" s="93"/>
+      <c r="BL45" s="94"/>
       <c r="BM45" s="9"/>
       <c r="BN45" s="17"/>
       <c r="BO45" s="18"/>
@@ -6143,207 +6143,207 @@
       <c r="B47" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="92"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="90"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="92"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="90"/>
       <c r="T47" s="8"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="92"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="90"/>
       <c r="AC47" s="8"/>
-      <c r="AD47" s="91"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="91"/>
-      <c r="AG47" s="92"/>
+      <c r="AD47" s="89"/>
+      <c r="AE47" s="90"/>
+      <c r="AF47" s="89"/>
+      <c r="AG47" s="90"/>
       <c r="AH47" s="106"/>
       <c r="AI47" s="107"/>
       <c r="AJ47" s="107"/>
       <c r="AK47" s="108"/>
       <c r="AL47" s="8"/>
-      <c r="AM47" s="91"/>
-      <c r="AN47" s="92"/>
-      <c r="AO47" s="91"/>
-      <c r="AP47" s="92"/>
-      <c r="AQ47" s="91"/>
-      <c r="AR47" s="92"/>
-      <c r="AS47" s="91"/>
-      <c r="AT47" s="92"/>
+      <c r="AM47" s="89"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="89"/>
+      <c r="AP47" s="90"/>
+      <c r="AQ47" s="89"/>
+      <c r="AR47" s="90"/>
+      <c r="AS47" s="89"/>
+      <c r="AT47" s="90"/>
       <c r="AU47" s="8"/>
-      <c r="AV47" s="91"/>
-      <c r="AW47" s="92"/>
-      <c r="AX47" s="91"/>
-      <c r="AY47" s="92"/>
-      <c r="AZ47" s="91"/>
-      <c r="BA47" s="92"/>
-      <c r="BB47" s="91"/>
-      <c r="BC47" s="92"/>
+      <c r="AV47" s="89"/>
+      <c r="AW47" s="90"/>
+      <c r="AX47" s="89"/>
+      <c r="AY47" s="90"/>
+      <c r="AZ47" s="89"/>
+      <c r="BA47" s="90"/>
+      <c r="BB47" s="89"/>
+      <c r="BC47" s="90"/>
       <c r="BD47" s="8"/>
-      <c r="BE47" s="91"/>
-      <c r="BF47" s="92"/>
-      <c r="BG47" s="91"/>
-      <c r="BH47" s="92"/>
-      <c r="BI47" s="91"/>
-      <c r="BJ47" s="92"/>
-      <c r="BK47" s="91"/>
-      <c r="BL47" s="92"/>
+      <c r="BE47" s="89"/>
+      <c r="BF47" s="90"/>
+      <c r="BG47" s="89"/>
+      <c r="BH47" s="90"/>
+      <c r="BI47" s="89"/>
+      <c r="BJ47" s="90"/>
+      <c r="BK47" s="89"/>
+      <c r="BL47" s="90"/>
       <c r="BM47" s="8"/>
-      <c r="BN47" s="91"/>
-      <c r="BO47" s="92"/>
-      <c r="BP47" s="91"/>
-      <c r="BQ47" s="92"/>
+      <c r="BN47" s="89"/>
+      <c r="BO47" s="90"/>
+      <c r="BP47" s="89"/>
+      <c r="BQ47" s="90"/>
       <c r="BR47" s="60"/>
       <c r="BS47" s="61"/>
       <c r="BT47" s="61"/>
       <c r="BU47" s="62"/>
       <c r="BV47" s="8"/>
-      <c r="BW47" s="91"/>
-      <c r="BX47" s="92"/>
-      <c r="BY47" s="91"/>
-      <c r="BZ47" s="92"/>
-      <c r="CA47" s="91"/>
-      <c r="CB47" s="92"/>
-      <c r="CC47" s="91"/>
-      <c r="CD47" s="92"/>
+      <c r="BW47" s="89"/>
+      <c r="BX47" s="90"/>
+      <c r="BY47" s="89"/>
+      <c r="BZ47" s="90"/>
+      <c r="CA47" s="89"/>
+      <c r="CB47" s="90"/>
+      <c r="CC47" s="89"/>
+      <c r="CD47" s="90"/>
       <c r="CE47" s="24"/>
-      <c r="CF47" s="91"/>
-      <c r="CG47" s="92"/>
+      <c r="CF47" s="89"/>
+      <c r="CG47" s="90"/>
       <c r="CH47" s="58"/>
       <c r="CI47" s="59"/>
       <c r="CJ47" s="58"/>
       <c r="CK47" s="59"/>
-      <c r="CL47" s="91"/>
-      <c r="CM47" s="92"/>
+      <c r="CL47" s="89"/>
+      <c r="CM47" s="90"/>
       <c r="CN47" s="8"/>
       <c r="CO47" s="85"/>
       <c r="CP47" s="86"/>
       <c r="CQ47" s="85"/>
       <c r="CR47" s="86"/>
-      <c r="CS47" s="91"/>
-      <c r="CT47" s="92"/>
-      <c r="CU47" s="91"/>
-      <c r="CV47" s="92"/>
+      <c r="CS47" s="89"/>
+      <c r="CT47" s="90"/>
+      <c r="CU47" s="89"/>
+      <c r="CV47" s="90"/>
       <c r="CW47" s="8"/>
       <c r="CX47" s="113"/>
     </row>
     <row r="48" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="122"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="90"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="94"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="90"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="93"/>
+      <c r="S48" s="94"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="89"/>
-      <c r="AB48" s="90"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="93"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="94"/>
+      <c r="AA48" s="93"/>
+      <c r="AB48" s="94"/>
       <c r="AC48" s="9"/>
-      <c r="AD48" s="89"/>
-      <c r="AE48" s="90"/>
-      <c r="AF48" s="89"/>
-      <c r="AG48" s="90"/>
+      <c r="AD48" s="93"/>
+      <c r="AE48" s="94"/>
+      <c r="AF48" s="93"/>
+      <c r="AG48" s="94"/>
       <c r="AH48" s="103"/>
       <c r="AI48" s="104"/>
       <c r="AJ48" s="104"/>
       <c r="AK48" s="105"/>
       <c r="AL48" s="9"/>
-      <c r="AM48" s="89"/>
-      <c r="AN48" s="90"/>
-      <c r="AO48" s="89"/>
-      <c r="AP48" s="90"/>
-      <c r="AQ48" s="89"/>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="89"/>
-      <c r="AT48" s="90"/>
+      <c r="AM48" s="93"/>
+      <c r="AN48" s="94"/>
+      <c r="AO48" s="93"/>
+      <c r="AP48" s="94"/>
+      <c r="AQ48" s="93"/>
+      <c r="AR48" s="94"/>
+      <c r="AS48" s="93"/>
+      <c r="AT48" s="94"/>
       <c r="AU48" s="9"/>
-      <c r="AV48" s="89"/>
-      <c r="AW48" s="90"/>
-      <c r="AX48" s="89"/>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="89"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="89"/>
-      <c r="BC48" s="90"/>
+      <c r="AV48" s="93"/>
+      <c r="AW48" s="94"/>
+      <c r="AX48" s="93"/>
+      <c r="AY48" s="94"/>
+      <c r="AZ48" s="93"/>
+      <c r="BA48" s="94"/>
+      <c r="BB48" s="93"/>
+      <c r="BC48" s="94"/>
       <c r="BD48" s="9"/>
-      <c r="BE48" s="89"/>
-      <c r="BF48" s="90"/>
-      <c r="BG48" s="89"/>
-      <c r="BH48" s="90"/>
-      <c r="BI48" s="89"/>
-      <c r="BJ48" s="90"/>
-      <c r="BK48" s="89"/>
-      <c r="BL48" s="90"/>
+      <c r="BE48" s="93"/>
+      <c r="BF48" s="94"/>
+      <c r="BG48" s="93"/>
+      <c r="BH48" s="94"/>
+      <c r="BI48" s="93"/>
+      <c r="BJ48" s="94"/>
+      <c r="BK48" s="93"/>
+      <c r="BL48" s="94"/>
       <c r="BM48" s="9"/>
-      <c r="BN48" s="89"/>
-      <c r="BO48" s="90"/>
-      <c r="BP48" s="89"/>
-      <c r="BQ48" s="90"/>
+      <c r="BN48" s="93"/>
+      <c r="BO48" s="94"/>
+      <c r="BP48" s="93"/>
+      <c r="BQ48" s="94"/>
       <c r="BR48" s="60"/>
       <c r="BS48" s="61"/>
       <c r="BT48" s="61"/>
       <c r="BU48" s="62"/>
       <c r="BV48" s="9"/>
-      <c r="BW48" s="89"/>
-      <c r="BX48" s="90"/>
-      <c r="BY48" s="89"/>
-      <c r="BZ48" s="90"/>
-      <c r="CA48" s="89"/>
-      <c r="CB48" s="90"/>
-      <c r="CC48" s="89"/>
-      <c r="CD48" s="90"/>
+      <c r="BW48" s="93"/>
+      <c r="BX48" s="94"/>
+      <c r="BY48" s="93"/>
+      <c r="BZ48" s="94"/>
+      <c r="CA48" s="93"/>
+      <c r="CB48" s="94"/>
+      <c r="CC48" s="93"/>
+      <c r="CD48" s="94"/>
       <c r="CE48" s="9"/>
-      <c r="CF48" s="89"/>
-      <c r="CG48" s="90"/>
-      <c r="CH48" s="89"/>
-      <c r="CI48" s="90"/>
-      <c r="CJ48" s="89"/>
-      <c r="CK48" s="90"/>
-      <c r="CL48" s="89"/>
-      <c r="CM48" s="90"/>
+      <c r="CF48" s="93"/>
+      <c r="CG48" s="94"/>
+      <c r="CH48" s="93"/>
+      <c r="CI48" s="94"/>
+      <c r="CJ48" s="93"/>
+      <c r="CK48" s="94"/>
+      <c r="CL48" s="93"/>
+      <c r="CM48" s="94"/>
       <c r="CN48" s="9"/>
-      <c r="CO48" s="93"/>
-      <c r="CP48" s="94"/>
-      <c r="CQ48" s="93"/>
-      <c r="CR48" s="94"/>
-      <c r="CS48" s="89"/>
-      <c r="CT48" s="90"/>
-      <c r="CU48" s="89"/>
-      <c r="CV48" s="90"/>
+      <c r="CO48" s="91"/>
+      <c r="CP48" s="92"/>
+      <c r="CQ48" s="91"/>
+      <c r="CR48" s="92"/>
+      <c r="CS48" s="93"/>
+      <c r="CT48" s="94"/>
+      <c r="CU48" s="93"/>
+      <c r="CV48" s="94"/>
       <c r="CW48" s="9"/>
       <c r="CX48" s="113"/>
     </row>
@@ -6456,10 +6456,10 @@
       <c r="B50" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="92"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="58"/>
       <c r="H50" s="59"/>
       <c r="I50" s="58"/>
@@ -6483,8 +6483,8 @@
       <c r="AA50" s="58"/>
       <c r="AB50" s="59"/>
       <c r="AC50" s="29"/>
-      <c r="AD50" s="89"/>
-      <c r="AE50" s="90"/>
+      <c r="AD50" s="93"/>
+      <c r="AE50" s="94"/>
       <c r="AF50" s="58"/>
       <c r="AG50" s="59"/>
       <c r="AH50" s="60"/>
@@ -6501,21 +6501,21 @@
       <c r="AS50" s="58"/>
       <c r="AT50" s="59"/>
       <c r="AU50" s="29"/>
-      <c r="AV50" s="91"/>
-      <c r="AW50" s="92"/>
-      <c r="AX50" s="91"/>
-      <c r="AY50" s="92"/>
-      <c r="AZ50" s="91"/>
-      <c r="BA50" s="92"/>
-      <c r="BB50" s="58"/>
-      <c r="BC50" s="59"/>
+      <c r="AV50" s="58"/>
+      <c r="AW50" s="59"/>
+      <c r="AX50" s="89"/>
+      <c r="AY50" s="90"/>
+      <c r="AZ50" s="89"/>
+      <c r="BA50" s="90"/>
+      <c r="BB50" s="89"/>
+      <c r="BC50" s="90"/>
       <c r="BD50" s="29"/>
-      <c r="BE50" s="91"/>
-      <c r="BF50" s="92"/>
-      <c r="BG50" s="91"/>
-      <c r="BH50" s="92"/>
-      <c r="BI50" s="91"/>
-      <c r="BJ50" s="92"/>
+      <c r="BE50" s="89"/>
+      <c r="BF50" s="90"/>
+      <c r="BG50" s="89"/>
+      <c r="BH50" s="90"/>
+      <c r="BI50" s="89"/>
+      <c r="BJ50" s="90"/>
       <c r="BK50" s="58"/>
       <c r="BL50" s="59"/>
       <c r="BM50" s="29"/>
@@ -6559,68 +6559,68 @@
     </row>
     <row r="51" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="120"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="90"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="94"/>
       <c r="G51" s="82"/>
       <c r="H51" s="83"/>
       <c r="I51" s="82"/>
       <c r="J51" s="83"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="90"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="94"/>
       <c r="R51" s="82"/>
       <c r="S51" s="83"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="94"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="92"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="92"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="92"/>
       <c r="AA51" s="82"/>
       <c r="AB51" s="83"/>
       <c r="AC51" s="9"/>
-      <c r="AD51" s="93"/>
-      <c r="AE51" s="94"/>
-      <c r="AF51" s="93"/>
-      <c r="AG51" s="94"/>
+      <c r="AD51" s="91"/>
+      <c r="AE51" s="92"/>
+      <c r="AF51" s="82"/>
+      <c r="AG51" s="83"/>
       <c r="AH51" s="60"/>
       <c r="AI51" s="61"/>
       <c r="AJ51" s="61"/>
       <c r="AK51" s="62"/>
       <c r="AL51" s="10"/>
-      <c r="AM51" s="93"/>
-      <c r="AN51" s="94"/>
-      <c r="AO51" s="93"/>
-      <c r="AP51" s="94"/>
-      <c r="AQ51" s="93"/>
-      <c r="AR51" s="94"/>
-      <c r="AS51" s="93"/>
-      <c r="AT51" s="94"/>
+      <c r="AM51" s="91"/>
+      <c r="AN51" s="92"/>
+      <c r="AO51" s="91"/>
+      <c r="AP51" s="92"/>
+      <c r="AQ51" s="91"/>
+      <c r="AR51" s="92"/>
+      <c r="AS51" s="82"/>
+      <c r="AT51" s="83"/>
       <c r="AU51" s="11"/>
-      <c r="AV51" s="89"/>
-      <c r="AW51" s="90"/>
-      <c r="AX51" s="89"/>
-      <c r="AY51" s="90"/>
-      <c r="AZ51" s="89"/>
-      <c r="BA51" s="90"/>
-      <c r="BB51" s="89"/>
-      <c r="BC51" s="90"/>
+      <c r="AV51" s="82"/>
+      <c r="AW51" s="83"/>
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="94"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="94"/>
+      <c r="BB51" s="93"/>
+      <c r="BC51" s="94"/>
       <c r="BD51" s="9"/>
-      <c r="BE51" s="89"/>
-      <c r="BF51" s="90"/>
-      <c r="BG51" s="89"/>
-      <c r="BH51" s="90"/>
-      <c r="BI51" s="89"/>
-      <c r="BJ51" s="90"/>
-      <c r="BK51" s="89"/>
-      <c r="BL51" s="90"/>
+      <c r="BE51" s="93"/>
+      <c r="BF51" s="94"/>
+      <c r="BG51" s="93"/>
+      <c r="BH51" s="94"/>
+      <c r="BI51" s="93"/>
+      <c r="BJ51" s="94"/>
+      <c r="BK51" s="93"/>
+      <c r="BL51" s="94"/>
       <c r="BM51" s="9"/>
       <c r="BN51" s="22"/>
       <c r="BO51" s="23"/>
@@ -6649,14 +6649,14 @@
       <c r="CL51" s="17"/>
       <c r="CM51" s="18"/>
       <c r="CN51" s="9"/>
-      <c r="CO51" s="89"/>
-      <c r="CP51" s="90"/>
-      <c r="CQ51" s="89"/>
-      <c r="CR51" s="90"/>
-      <c r="CS51" s="89"/>
-      <c r="CT51" s="90"/>
-      <c r="CU51" s="89"/>
-      <c r="CV51" s="90"/>
+      <c r="CO51" s="93"/>
+      <c r="CP51" s="94"/>
+      <c r="CQ51" s="93"/>
+      <c r="CR51" s="94"/>
+      <c r="CS51" s="93"/>
+      <c r="CT51" s="94"/>
+      <c r="CU51" s="93"/>
+      <c r="CV51" s="94"/>
       <c r="CW51" s="9"/>
       <c r="CX51" s="113"/>
     </row>
@@ -6664,32 +6664,32 @@
       <c r="B52" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="92"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="58"/>
       <c r="J52" s="59"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="92"/>
-      <c r="R52" s="91"/>
-      <c r="S52" s="92"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="90"/>
       <c r="T52" s="8"/>
-      <c r="U52" s="91"/>
-      <c r="V52" s="92"/>
-      <c r="W52" s="91"/>
-      <c r="X52" s="92"/>
-      <c r="Y52" s="91"/>
-      <c r="Z52" s="92"/>
-      <c r="AA52" s="91"/>
-      <c r="AB52" s="92"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="90"/>
+      <c r="AA52" s="89"/>
+      <c r="AB52" s="90"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="115"/>
       <c r="AE52" s="116"/>
@@ -6709,23 +6709,23 @@
       <c r="AS52" s="46"/>
       <c r="AT52" s="47"/>
       <c r="AU52" s="29"/>
-      <c r="AV52" s="91"/>
-      <c r="AW52" s="92"/>
-      <c r="AX52" s="91"/>
-      <c r="AY52" s="92"/>
-      <c r="AZ52" s="91"/>
-      <c r="BA52" s="92"/>
-      <c r="BB52" s="91"/>
-      <c r="BC52" s="92"/>
+      <c r="AV52" s="89"/>
+      <c r="AW52" s="90"/>
+      <c r="AX52" s="89"/>
+      <c r="AY52" s="90"/>
+      <c r="AZ52" s="89"/>
+      <c r="BA52" s="90"/>
+      <c r="BB52" s="89"/>
+      <c r="BC52" s="90"/>
       <c r="BD52" s="8"/>
-      <c r="BE52" s="91"/>
-      <c r="BF52" s="92"/>
-      <c r="BG52" s="91"/>
-      <c r="BH52" s="92"/>
-      <c r="BI52" s="91"/>
-      <c r="BJ52" s="92"/>
-      <c r="BK52" s="91"/>
-      <c r="BL52" s="92"/>
+      <c r="BE52" s="89"/>
+      <c r="BF52" s="90"/>
+      <c r="BG52" s="89"/>
+      <c r="BH52" s="90"/>
+      <c r="BI52" s="89"/>
+      <c r="BJ52" s="90"/>
+      <c r="BK52" s="89"/>
+      <c r="BL52" s="90"/>
       <c r="BM52" s="8"/>
       <c r="BN52" s="13"/>
       <c r="BO52" s="14"/>
@@ -6754,12 +6754,12 @@
       <c r="CL52" s="58"/>
       <c r="CM52" s="59"/>
       <c r="CN52" s="29"/>
-      <c r="CO52" s="91"/>
-      <c r="CP52" s="92"/>
-      <c r="CQ52" s="91"/>
-      <c r="CR52" s="92"/>
-      <c r="CS52" s="91"/>
-      <c r="CT52" s="92"/>
+      <c r="CO52" s="89"/>
+      <c r="CP52" s="90"/>
+      <c r="CQ52" s="89"/>
+      <c r="CR52" s="90"/>
+      <c r="CS52" s="89"/>
+      <c r="CT52" s="90"/>
       <c r="CU52" s="87"/>
       <c r="CV52" s="88"/>
       <c r="CW52" s="29"/>
@@ -6767,32 +6767,32 @@
     </row>
     <row r="53" spans="2:102" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="120"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="94"/>
       <c r="I53" s="82"/>
       <c r="J53" s="83"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="90"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="94"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="89"/>
-      <c r="AB53" s="90"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="94"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="94"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="115"/>
       <c r="AE53" s="116"/>
@@ -6812,23 +6812,23 @@
       <c r="AS53" s="48"/>
       <c r="AT53" s="49"/>
       <c r="AU53" s="30"/>
-      <c r="AV53" s="89"/>
-      <c r="AW53" s="90"/>
-      <c r="AX53" s="89"/>
-      <c r="AY53" s="90"/>
-      <c r="AZ53" s="89"/>
-      <c r="BA53" s="90"/>
-      <c r="BB53" s="89"/>
-      <c r="BC53" s="90"/>
+      <c r="AV53" s="93"/>
+      <c r="AW53" s="94"/>
+      <c r="AX53" s="93"/>
+      <c r="AY53" s="94"/>
+      <c r="AZ53" s="93"/>
+      <c r="BA53" s="94"/>
+      <c r="BB53" s="93"/>
+      <c r="BC53" s="94"/>
       <c r="BD53" s="8"/>
-      <c r="BE53" s="89"/>
-      <c r="BF53" s="90"/>
-      <c r="BG53" s="89"/>
-      <c r="BH53" s="90"/>
-      <c r="BI53" s="89"/>
-      <c r="BJ53" s="90"/>
-      <c r="BK53" s="89"/>
-      <c r="BL53" s="90"/>
+      <c r="BE53" s="93"/>
+      <c r="BF53" s="94"/>
+      <c r="BG53" s="93"/>
+      <c r="BH53" s="94"/>
+      <c r="BI53" s="93"/>
+      <c r="BJ53" s="94"/>
+      <c r="BK53" s="93"/>
+      <c r="BL53" s="94"/>
       <c r="BM53" s="8"/>
       <c r="BN53" s="17"/>
       <c r="BO53" s="18"/>
@@ -6857,14 +6857,14 @@
       <c r="CL53" s="17"/>
       <c r="CM53" s="18"/>
       <c r="CN53" s="9"/>
-      <c r="CO53" s="89"/>
-      <c r="CP53" s="90"/>
-      <c r="CQ53" s="89"/>
-      <c r="CR53" s="90"/>
-      <c r="CS53" s="89"/>
-      <c r="CT53" s="90"/>
-      <c r="CU53" s="89"/>
-      <c r="CV53" s="90"/>
+      <c r="CO53" s="93"/>
+      <c r="CP53" s="94"/>
+      <c r="CQ53" s="93"/>
+      <c r="CR53" s="94"/>
+      <c r="CS53" s="93"/>
+      <c r="CT53" s="94"/>
+      <c r="CU53" s="93"/>
+      <c r="CV53" s="94"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="114"/>
     </row>
@@ -8619,10 +8619,9 @@
     <mergeCell ref="AA53:AB53"/>
     <mergeCell ref="Y50:Z50"/>
     <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AV50:AW50"/>
     <mergeCell ref="AX50:AY50"/>
     <mergeCell ref="AZ50:BA50"/>
-    <mergeCell ref="BB50:BC50"/>
+    <mergeCell ref="AV50:AW50"/>
     <mergeCell ref="AV51:AW51"/>
     <mergeCell ref="AX51:AY51"/>
     <mergeCell ref="AZ51:BA51"/>
@@ -8637,6 +8636,7 @@
     <mergeCell ref="BB53:BC53"/>
     <mergeCell ref="AD52:AE52"/>
     <mergeCell ref="AF52:AG52"/>
+    <mergeCell ref="BB50:BC50"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="AA51:AB51"/>
     <mergeCell ref="Y52:Z52"/>
